--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -390,13 +390,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D254"/>
+  <dimension ref="A1:D806"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B634" workbookViewId="0">
+      <selection activeCell="C643" sqref="C643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="71.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="255.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -4968,6 +4972,9942 @@
       </c>
       <c r="D254" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>8/8/2bb4/6kp/2p5/2P4K/5p2/8 b - - 0 71</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>{'d6f8': 0.03333333333333333, 'd6b8': 0.03333333333333333, 'd6e7': 0.03333333333333333, 'd6c7': 0.03333333333333333, 'd6e5': 0.03333333333333333, 'd6c5': 0.03333333333333333, 'd6f4': 0.03333333333333333, 'd6b4': 0.03333333333333333, 'd6g3': 0.03333333333333333, 'd6a3': 0.03333333333333333, 'd6h2': 0.03333333333333333, 'c6e8': 0.03333333333333333, 'c6a8': 0.03333333333333333, 'c6d7': 0.03333333333333333, 'c6b7': 0.03333333333333333, 'c6d5': 0.03333333333333333, 'c6b5': 0.03333333333333333, 'c6e4': 0.03333333333333333, 'c6a4': 0.03333333333333333, 'c6f3': 0.03333333333333333, 'c6g2': 0.03333333333333333, 'c6h1': 0.03333333333333333, 'g5h6': 0.03333333333333333, 'g5g6': 0.03333333333333333, 'g5f6': 0.03333333333333333, 'g5f5': 0.03333333333333333, 'g5f4': 0.03333333333333333, 'h5h4': 0.03333333333333333, 'f2f1q': 0.03333333333333333, 'f2f1r': 0.03333333333333333, 'f2f1b': 0.0, 'f2f1n': 0.0}</t>
+        </is>
+      </c>
+      <c r="C255" t="b">
+        <v>1</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>5b2/8/2b5/6kp/2p5/2P4K/5p2/8 w - - 1 72</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>{'h3g3': 0.4838709677419355, 'h3h2': 0.4838709677419355}</t>
+        </is>
+      </c>
+      <c r="C256" t="b">
+        <v>1</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>5b2/8/2b5/6kp/2p5/2P3K1/5p2/8 b - - 2 72</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>{'f8g7': 0.022222222222222223, 'f8e7': 0.022222222222222223, 'f8h6': 0.022222222222222223, 'f8d6': 0.022222222222222223, 'f8c5': 0.022222222222222223, 'f8b4': 0.022222222222222223, 'f8a3': 0.022222222222222223, 'c6e8': 0.022222222222222223, 'c6a8': 0.022222222222222223, 'c6d7': 0.044444444444444446, 'c6b7': 0.044444444444444446, 'c6d5': 0.044444444444444446, 'c6b5': 0.022222222222222223, 'c6e4': 0.044444444444444446, 'c6a4': 0.044444444444444446, 'c6f3': 0.044444444444444446, 'c6g2': 0.044444444444444446, 'c6h1': 0.044444444444444446, 'g5h6': 0.044444444444444446, 'g5g6': 0.044444444444444446, 'g5f6': 0.044444444444444446, 'g5f5': 0.044444444444444446, 'h5h4': 0.044444444444444446, 'f2f1q': 0.044444444444444446, 'f2f1r': 0.044444444444444446, 'f2f1b': 0.044444444444444446, 'f2f1n': 0.044444444444444446}</t>
+        </is>
+      </c>
+      <c r="C257" t="b">
+        <v>0</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>5b2/3b4/8/6kp/2p5/2P3K1/5p2/8 w - - 3 73</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>{'g3f3': 0.25, 'g3h2': 0.25, 'g3g2': 0.21875, 'g3f2': 0.25}</t>
+        </is>
+      </c>
+      <c r="C258" t="b">
+        <v>1</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>5b2/3b4/8/6kp/2p5/2P2K2/5p2/8 b - - 4 73</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>{'f8g7': 0.02631578947368421, 'f8e7': 0.02631578947368421, 'f8h6': 0.02631578947368421, 'f8d6': 0.02631578947368421, 'f8c5': 0.02631578947368421, 'f8b4': 0.02631578947368421, 'f8a3': 0.02631578947368421, 'd7e8': 0.02631578947368421, 'd7c8': 0.02631578947368421, 'd7e6': 0.02631578947368421, 'd7c6': 0.02631578947368421, 'd7f5': 0.05263157894736842, 'd7b5': 0.02631578947368421, 'd7g4': 0.02631578947368421, 'd7a4': 0.02631578947368421, 'd7h3': 0.05263157894736842, 'g5h6': 0.05263157894736842, 'g5g6': 0.05263157894736842, 'g5f6': 0.05263157894736842, 'g5f5': 0.02631578947368421, 'g5h4': 0.05263157894736842, 'h5h4': 0.05263157894736842, 'f2f1q': 0.05263157894736842, 'f2f1r': 0.05263157894736842, 'f2f1b': 0.05263157894736842, 'f2f1n': 0.05263157894736842}</t>
+        </is>
+      </c>
+      <c r="C259" t="b">
+        <v>0</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>5b2/8/8/5bkp/2p5/2P2K2/5p2/8 w - - 5 74</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>{'f3g3': 0.15625, 'f3e3': 0.1875, 'f3g2': 0.21875, 'f3f2': 0.1875, 'f3e2': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C260" t="b">
+        <v>1</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>5b2/8/8/5bkp/2p5/2P5/5pK1/8 b - - 6 74</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>{'f8g7': 0.02702702702702703, 'f8e7': 0.02702702702702703, 'f8h6': 0.02702702702702703, 'f8d6': 0.02702702702702703, 'f8c5': 0.02702702702702703, 'f8b4': 0.02702702702702703, 'f8a3': 0.02702702702702703, 'g5h6': 0.02702702702702703, 'g5g6': 0.02702702702702703, 'g5f6': 0.02702702702702703, 'g5h4': 0.02702702702702703, 'g5g4': 0.02702702702702703, 'g5f4': 0.02702702702702703, 'f5c8': 0.02702702702702703, 'f5h7': 0.02702702702702703, 'f5d7': 0.02702702702702703, 'f5g6': 0.02702702702702703, 'f5e6': 0.02702702702702703, 'f5g4': 0.02702702702702703, 'f5e4': 0.02702702702702703, 'f5h3': 0.05405405405405406, 'f5d3': 0.05405405405405406, 'f5c2': 0.05405405405405406, 'f5b1': 0.05405405405405406, 'h5h4': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.02702702702702703, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C261" t="b">
+        <v>0</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>5b2/8/8/6kp/2p5/2P4b/5pK1/8 w - - 7 75</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>{'g2h3': 0.15625, 'g2g3': 0.15625, 'g2f3': 0.1875, 'g2h2': 0.15625, 'g2f2': 0.15625, 'g2h1': 0.15625}</t>
+        </is>
+      </c>
+      <c r="C262" t="b">
+        <v>1</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>5b2/8/8/6kp/2p5/2P2K1b/5p2/8 b - - 8 75</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>{'f8g7': 0.027777777777777776, 'f8e7': 0.027777777777777776, 'f8h6': 0.027777777777777776, 'f8d6': 0.027777777777777776, 'f8c5': 0.027777777777777776, 'f8b4': 0.027777777777777776, 'f8a3': 0.027777777777777776, 'g5h6': 0.027777777777777776, 'g5g6': 0.027777777777777776, 'g5f6': 0.027777777777777776, 'g5f5': 0.027777777777777776, 'g5h4': 0.05555555555555555, 'h3c8': 0.027777777777777776, 'h3d7': 0.05555555555555555, 'h3e6': 0.05555555555555555, 'h3f5': 0.027777777777777776, 'h3g4': 0.05555555555555555, 'h3g2': 0.05555555555555555, 'h3f1': 0.05555555555555555, 'h5h4': 0.05555555555555555, 'f2f1q': 0.05555555555555555, 'f2f1r': 0.05555555555555555, 'f2f1b': 0.05555555555555555, 'f2f1n': 0.05555555555555555}</t>
+        </is>
+      </c>
+      <c r="C263" t="b">
+        <v>0</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>5b2/8/8/7p/2p4k/2P2K1b/5p2/8 w - - 9 76</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>{'f3f4': 0.1875, 'f3e4': 0.1875, 'f3e3': 0.1875, 'f3f2': 0.1875, 'f3e2': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C264" t="b">
+        <v>1</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>5b2/8/8/7p/2p4k/2P4b/4Kp2/8 b - - 10 76</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>{'f8g7': 0.02702702702702703, 'f8e7': 0.02702702702702703, 'f8h6': 0.02702702702702703, 'f8d6': 0.02702702702702703, 'f8c5': 0.02702702702702703, 'f8b4': 0.02702702702702703, 'f8a3': 0.05405405405405406, 'h4g5': 0.05405405405405406, 'h4g4': 0.05405405405405406, 'h4g3': 0.05405405405405406, 'h3c8': 0.05405405405405406, 'h3d7': 0.05405405405405406, 'h3e6': 0.05405405405405406, 'h3f5': 0.05405405405405406, 'h3g4': 0.05405405405405406, 'h3g2': 0.05405405405405406, 'h3f1': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C265" t="b">
+        <v>0</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>8/8/8/7p/2p4k/b1P4b/4Kp2/8 w - - 11 77</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>{'e2f3': 0.21875, 'e2e3': 0.21875, 'e2f2': 0.1875, 'e2d2': 0.15625, 'e2d1': 0.1875}</t>
+        </is>
+      </c>
+      <c r="C266" t="b">
+        <v>1</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>8/8/8/7p/2p4k/b1P2K1b/5p2/8 b - - 12 77</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>{'h4g5': 0.02702702702702703, 'h3c8': 0.02702702702702703, 'h3d7': 0.02702702702702703, 'h3e6': 0.08108108108108109, 'h3f5': 0.02702702702702703, 'h3g4': 0.08108108108108109, 'h3g2': 0.05405405405405406, 'h3f1': 0.05405405405405406, 'a3f8': 0.05405405405405406, 'a3e7': 0.05405405405405406, 'a3d6': 0.05405405405405406, 'a3c5': 0.05405405405405406, 'a3b4': 0.05405405405405406, 'a3b2': 0.05405405405405406, 'a3c1': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C267" t="b">
+        <v>0</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>8/8/4b3/7p/2p4k/b1P2K2/5p2/8 w - - 13 78</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>{'f3f4': 0.15151515151515152, 'f3e4': 0.15151515151515152, 'f3e3': 0.12121212121212122, 'f3g2': 0.18181818181818182, 'f3f2': 0.15151515151515152, 'f3e2': 0.21212121212121213}</t>
+        </is>
+      </c>
+      <c r="C268" t="b">
+        <v>1</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>8/8/4b3/7p/2p4k/b1P5/4Kp2/8 b - - 14 78</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>{'e6g8': 0.02702702702702703, 'e6c8': 0.02702702702702703, 'e6f7': 0.02702702702702703, 'e6d7': 0.02702702702702703, 'e6f5': 0.02702702702702703, 'e6d5': 0.02702702702702703, 'e6g4': 0.02702702702702703, 'e6h3': 0.02702702702702703, 'h4g5': 0.02702702702702703, 'h4g4': 0.02702702702702703, 'h4h3': 0.05405405405405406, 'h4g3': 0.05405405405405406, 'a3f8': 0.05405405405405406, 'a3e7': 0.05405405405405406, 'a3d6': 0.05405405405405406, 'a3c5': 0.05405405405405406, 'a3b4': 0.05405405405405406, 'a3b2': 0.05405405405405406, 'a3c1': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C269" t="b">
+        <v>0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>8/8/4b3/7p/2p5/b1P4k/4Kp2/8 w - - 15 79</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>{'e2f3': 0.15625, 'e2e3': 0.1875, 'e2f2': 0.15625, 'e2d2': 0.15625, 'e2f1': 0.1875, 'e2d1': 0.125}</t>
+        </is>
+      </c>
+      <c r="C270" t="b">
+        <v>1</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>8/8/4b3/7p/2p5/b1P1K2k/5p2/8 b - - 16 79</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>{'e6g8': 0.027777777777777776, 'e6c8': 0.027777777777777776, 'e6f7': 0.027777777777777776, 'e6d7': 0.027777777777777776, 'e6f5': 0.027777777777777776, 'e6d5': 0.027777777777777776, 'e6g4': 0.027777777777777776, 'h3h4': 0.027777777777777776, 'h3g4': 0.027777777777777776, 'h3g3': 0.027777777777777776, 'h3h2': 0.05555555555555555, 'h3g2': 0.05555555555555555, 'a3f8': 0.027777777777777776, 'a3e7': 0.027777777777777776, 'a3d6': 0.05555555555555555, 'a3c5': 0.027777777777777776, 'a3b4': 0.05555555555555555, 'a3b2': 0.05555555555555555, 'a3c1': 0.05555555555555555, 'h5h4': 0.05555555555555555, 'f2f1q': 0.05555555555555555, 'f2f1r': 0.05555555555555555, 'f2f1b': 0.05555555555555555, 'f2f1n': 0.05555555555555555}</t>
+        </is>
+      </c>
+      <c r="C271" t="b">
+        <v>0</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>8/8/4b3/7p/2p5/b1P1K3/5p1k/8 w - - 17 80</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>{'e3f4': 0.15625, 'e3e4': 0.125, 'e3d4': 0.125, 'e3f3': 0.15625, 'e3f2': 0.15625, 'e3e2': 0.125, 'e3d2': 0.125}</t>
+        </is>
+      </c>
+      <c r="C272" t="b">
+        <v>1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>8/8/4b3/7p/2p2K2/b1P5/5p1k/8 b - - 18 80</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>{'e6g8': 0.02857142857142857, 'e6c8': 0.02857142857142857, 'e6f7': 0.02857142857142857, 'e6d7': 0.02857142857142857, 'e6f5': 0.02857142857142857, 'e6d5': 0.02857142857142857, 'e6g4': 0.02857142857142857, 'e6h3': 0.02857142857142857, 'a3f8': 0.02857142857142857, 'a3e7': 0.02857142857142857, 'a3d6': 0.02857142857142857, 'a3c5': 0.02857142857142857, 'a3b4': 0.02857142857142857, 'a3b2': 0.05714285714285714, 'a3c1': 0.05714285714285714, 'h2h3': 0.05714285714285714, 'h2g2': 0.02857142857142857, 'h2h1': 0.05714285714285714, 'h2g1': 0.05714285714285714, 'h5h4': 0.05714285714285714, 'f2f1q': 0.05714285714285714, 'f2f1r': 0.05714285714285714, 'f2f1b': 0.05714285714285714, 'f2f1n': 0.05714285714285714}</t>
+        </is>
+      </c>
+      <c r="C273" t="b">
+        <v>0</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>8/8/4b3/7p/2p2K2/2P5/1b3p1k/8 w - - 19 81</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>{'f4g5': 0.21875, 'f4e5': 0.21875, 'f4e4': 0.1875, 'f4f3': 0.21875, 'f4e3': 0.125}</t>
+        </is>
+      </c>
+      <c r="C274" t="b">
+        <v>1</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>8/8/4b3/6Kp/2p5/2P5/1b3p1k/8 b - - 20 81</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>{'e6g8': 0.02702702702702703, 'e6c8': 0.02702702702702703, 'e6f7': 0.02702702702702703, 'e6d7': 0.02702702702702703, 'e6f5': 0.02702702702702703, 'e6d5': 0.02702702702702703, 'e6g4': 0.02702702702702703, 'e6h3': 0.02702702702702703, 'h2h3': 0.05405405405405406, 'h2g3': 0.05405405405405406, 'h2g2': 0.05405405405405406, 'h2h1': 0.05405405405405406, 'h2g1': 0.05405405405405406, 'b2c3': 0.05405405405405406, 'b2a3': 0.05405405405405406, 'b2c1': 0.05405405405405406, 'b2a1': 0.05405405405405406, 'h5h4': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C275" t="b">
+        <v>0</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>8/8/4b3/6Kp/2p5/2P4k/1b3p2/8 w - - 21 82</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>{'g5h6': 0.21875, 'g5g6': 0.1875, 'g5f6': 0.15625, 'g5h5': 0.1875, 'g5f4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C276" t="b">
+        <v>1</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>8/8/4b2K/7p/2p5/2P4k/1b3p2/8 b - - 22 82</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>{'e6g8': 0.02702702702702703, 'e6c8': 0.02702702702702703, 'e6f7': 0.02702702702702703, 'e6d7': 0.02702702702702703, 'e6f5': 0.02702702702702703, 'e6d5': 0.05405405405405406, 'e6g4': 0.02702702702702703, 'h3h4': 0.05405405405405406, 'h3g4': 0.05405405405405406, 'h3g3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'h3g2': 0.05405405405405406, 'b2c3': 0.05405405405405406, 'b2a3': 0.05405405405405406, 'b2c1': 0.05405405405405406, 'b2a1': 0.05405405405405406, 'h5h4': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C277" t="b">
+        <v>0</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>8/8/7K/3b3p/2p5/2P4k/1b3p2/8 w - - 23 83</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>{'h6h7': 0.1875, 'h6g7': 0.1875, 'h6g6': 0.21875, 'h6h5': 0.15625, 'h6g5': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C278" t="b">
+        <v>1</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>8/8/6K1/3b3p/2p5/2P4k/1b3p2/8 b - - 24 83</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>{'d5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'h3h4': 0.02702702702702703, 'h3g4': 0.02702702702702703, 'h3g3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'h3g2': 0.05405405405405406, 'b2c3': 0.05405405405405406, 'b2a3': 0.05405405405405406, 'b2c1': 0.05405405405405406, 'b2a1': 0.05405405405405406, 'h5h4': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C279" t="b">
+        <v>0</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>8/8/6K1/3b3p/2p5/2P3k1/1b3p2/8 w - - 25 84</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>{'g6h7': 0.125, 'g6g7': 0.125, 'g6h6': 0.15625, 'g6f6': 0.15625, 'g6h5': 0.15625, 'g6g5': 0.125, 'g6f5': 0.125}</t>
+        </is>
+      </c>
+      <c r="C280" t="b">
+        <v>1</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>8/8/7K/3b3p/2p5/2P3k1/1b3p2/8 b - - 26 84</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>{'d5g8': 0.02857142857142857, 'd5a8': 0.02857142857142857, 'd5f7': 0.02857142857142857, 'd5b7': 0.02857142857142857, 'd5e6': 0.02857142857142857, 'd5c6': 0.02857142857142857, 'd5e4': 0.02857142857142857, 'd5f3': 0.02857142857142857, 'd5g2': 0.02857142857142857, 'd5h1': 0.02857142857142857, 'g3h4': 0.02857142857142857, 'g3g4': 0.02857142857142857, 'g3f4': 0.02857142857142857, 'g3h3': 0.02857142857142857, 'g3f3': 0.02857142857142857, 'g3h2': 0.02857142857142857, 'g3g2': 0.02857142857142857, 'b2c3': 0.05714285714285714, 'b2a3': 0.05714285714285714, 'b2c1': 0.05714285714285714, 'b2a1': 0.02857142857142857, 'h5h4': 0.05714285714285714, 'f2f1q': 0.05714285714285714, 'f2f1r': 0.05714285714285714, 'f2f1b': 0.05714285714285714, 'f2f1n': 0.05714285714285714}</t>
+        </is>
+      </c>
+      <c r="C281" t="b">
+        <v>0</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>8/8/7K/3b3p/2p5/2b3k1/5p2/8 w - - 0 85</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>{'h6h7': 0.25, 'h6g6': 0.28125, 'h6h5': 0.21875, 'h6g5': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C282" t="b">
+        <v>1</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>8/8/6K1/3b3p/2p5/2b3k1/5p2/8 b - - 1 85</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>{'d5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'g3h4': 0.02564102564102564, 'g3g4': 0.02564102564102564, 'g3f4': 0.02564102564102564, 'g3h3': 0.02564102564102564, 'g3f3': 0.02564102564102564, 'g3h2': 0.02564102564102564, 'g3g2': 0.02564102564102564, 'c3h8': 0.02564102564102564, 'c3g7': 0.02564102564102564, 'c3f6': 0.02564102564102564, 'c3e5': 0.02564102564102564, 'c3a5': 0.02564102564102564, 'c3d4': 0.02564102564102564, 'c3b4': 0.05128205128205128, 'c3d2': 0.05128205128205128, 'c3b2': 0.02564102564102564, 'c3e1': 0.05128205128205128, 'c3a1': 0.02564102564102564, 'h5h4': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C283" t="b">
+        <v>0</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>8/8/6K1/3b3p/1bp5/6k1/5p2/8 w - - 2 86</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>{'g6h7': 0.15625, 'g6g7': 0.125, 'g6h6': 0.09375, 'g6f6': 0.15625, 'g6h5': 0.15625, 'g6g5': 0.15625, 'g6f5': 0.125}</t>
+        </is>
+      </c>
+      <c r="C284" t="b">
+        <v>1</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>8/7K/8/3b3p/1bp5/6k1/5p2/8 b - - 3 86</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>{'d5g8': 0.02857142857142857, 'd5a8': 0.02857142857142857, 'd5f7': 0.02857142857142857, 'd5b7': 0.02857142857142857, 'd5e6': 0.02857142857142857, 'd5c6': 0.02857142857142857, 'd5e4': 0.02857142857142857, 'd5f3': 0.02857142857142857, 'd5g2': 0.02857142857142857, 'd5h1': 0.02857142857142857, 'b4f8': 0.02857142857142857, 'b4e7': 0.02857142857142857, 'b4d6': 0.02857142857142857, 'b4c5': 0.02857142857142857, 'b4a5': 0.02857142857142857, 'b4c3': 0.02857142857142857, 'b4a3': 0.02857142857142857, 'b4d2': 0.02857142857142857, 'b4e1': 0.02857142857142857, 'g3h4': 0.02857142857142857, 'g3g4': 0.02857142857142857, 'g3f4': 0.02857142857142857, 'g3h3': 0.02857142857142857, 'g3f3': 0.02857142857142857, 'g3h2': 0.02857142857142857, 'g3g2': 0.02857142857142857, 'h5h4': 0.05714285714285714, 'c4c3': 0.05714285714285714, 'f2f1q': 0.02857142857142857, 'f2f1r': 0.02857142857142857, 'f2f1b': 0.02857142857142857, 'f2f1n': 0.02857142857142857}</t>
+        </is>
+      </c>
+      <c r="C285" t="b">
+        <v>0</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>8/7K/8/3b4/1bp4p/6k1/5p2/8 w - - 0 87</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>{'h7h8': 0.25, 'h7g7': 0.25, 'h7h6': 0.21875, 'h7g6': 0.25}</t>
+        </is>
+      </c>
+      <c r="C286" t="b">
+        <v>1</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>7K/8/8/3b4/1bp4p/6k1/5p2/8 b - - 1 87</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>{'d5g8': 0.02631578947368421, 'd5a8': 0.02631578947368421, 'd5f7': 0.02631578947368421, 'd5b7': 0.02631578947368421, 'd5e6': 0.02631578947368421, 'd5c6': 0.02631578947368421, 'd5e4': 0.02631578947368421, 'd5f3': 0.02631578947368421, 'd5g2': 0.02631578947368421, 'd5h1': 0.02631578947368421, 'b4f8': 0.02631578947368421, 'b4e7': 0.02631578947368421, 'b4d6': 0.02631578947368421, 'b4c5': 0.02631578947368421, 'b4a5': 0.02631578947368421, 'b4c3': 0.02631578947368421, 'b4a3': 0.02631578947368421, 'b4d2': 0.02631578947368421, 'b4e1': 0.02631578947368421, 'g3g4': 0.02631578947368421, 'g3f4': 0.02631578947368421, 'g3h3': 0.02631578947368421, 'g3f3': 0.05263157894736842, 'g3h2': 0.05263157894736842, 'g3g2': 0.02631578947368421, 'h4h3': 0.05263157894736842, 'c4c3': 0.05263157894736842, 'f2f1q': 0.02631578947368421, 'f2f1r': 0.02631578947368421, 'f2f1b': 0.05263157894736842, 'f2f1n': 0.05263157894736842}</t>
+        </is>
+      </c>
+      <c r="C287" t="b">
+        <v>0</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>7K/8/8/3b4/1bp4p/5k2/5p2/8 w - - 2 88</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.5, 'h8g7': 0.46875}</t>
+        </is>
+      </c>
+      <c r="C288" t="b">
+        <v>1</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>8/7K/8/3b4/1bp4p/5k2/5p2/8 b - - 3 88</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>{'d5g8': 0.021739130434782608, 'd5a8': 0.021739130434782608, 'd5f7': 0.021739130434782608, 'd5b7': 0.021739130434782608, 'd5e6': 0.021739130434782608, 'd5c6': 0.021739130434782608, 'd5e4': 0.021739130434782608, 'b4f8': 0.021739130434782608, 'b4e7': 0.021739130434782608, 'b4d6': 0.021739130434782608, 'b4c5': 0.021739130434782608, 'b4a5': 0.021739130434782608, 'b4c3': 0.021739130434782608, 'b4a3': 0.043478260869565216, 'b4d2': 0.043478260869565216, 'b4e1': 0.043478260869565216, 'f3g4': 0.043478260869565216, 'f3f4': 0.043478260869565216, 'f3e4': 0.043478260869565216, 'f3g3': 0.043478260869565216, 'f3e3': 0.043478260869565216, 'f3g2': 0.043478260869565216, 'f3e2': 0.043478260869565216, 'h4h3': 0.043478260869565216, 'c4c3': 0.043478260869565216, 'f2f1q': 0.043478260869565216, 'f2f1r': 0.043478260869565216, 'f2f1b': 0.043478260869565216, 'f2f1n': 0.043478260869565216}</t>
+        </is>
+      </c>
+      <c r="C289" t="b">
+        <v>0</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>8/7K/8/3b4/2p4p/b4k2/5p2/8 w - - 4 89</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>{'h7h8': 0.25, 'h7g7': 0.25, 'h7h6': 0.21875, 'h7g6': 0.25}</t>
+        </is>
+      </c>
+      <c r="C290" t="b">
+        <v>1</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>7K/8/8/3b4/2p4p/b4k2/5p2/8 b - - 5 89</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>{'d5g8': 0.02631578947368421, 'd5a8': 0.02631578947368421, 'd5f7': 0.02631578947368421, 'd5b7': 0.02631578947368421, 'd5e6': 0.02631578947368421, 'd5c6': 0.02631578947368421, 'd5e4': 0.02631578947368421, 'f3g4': 0.02631578947368421, 'f3f4': 0.02631578947368421, 'f3e4': 0.02631578947368421, 'f3g3': 0.02631578947368421, 'f3e3': 0.02631578947368421, 'f3g2': 0.02631578947368421, 'f3e2': 0.05263157894736842, 'a3f8': 0.02631578947368421, 'a3e7': 0.02631578947368421, 'a3d6': 0.02631578947368421, 'a3c5': 0.02631578947368421, 'a3b4': 0.05263157894736842, 'a3b2': 0.05263157894736842, 'a3c1': 0.05263157894736842, 'h4h3': 0.05263157894736842, 'c4c3': 0.05263157894736842, 'f2f1q': 0.05263157894736842, 'f2f1r': 0.05263157894736842, 'f2f1b': 0.05263157894736842, 'f2f1n': 0.05263157894736842}</t>
+        </is>
+      </c>
+      <c r="C291" t="b">
+        <v>0</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>7K/8/8/3b4/2p4p/b7/4kp2/8 w - - 6 90</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.5, 'h8g7': 0.46875}</t>
+        </is>
+      </c>
+      <c r="C292" t="b">
+        <v>1</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>8/7K/8/3b4/2p4p/b7/4kp2/8 b - - 7 90</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>{'d5g8': 0.021739130434782608, 'd5a8': 0.021739130434782608, 'd5f7': 0.021739130434782608, 'd5b7': 0.021739130434782608, 'd5e6': 0.021739130434782608, 'd5c6': 0.021739130434782608, 'd5e4': 0.021739130434782608, 'd5f3': 0.021739130434782608, 'd5g2': 0.021739130434782608, 'd5h1': 0.021739130434782608, 'a3f8': 0.021739130434782608, 'a3e7': 0.021739130434782608, 'a3d6': 0.021739130434782608, 'a3c5': 0.021739130434782608, 'a3b4': 0.021739130434782608, 'a3b2': 0.043478260869565216, 'a3c1': 0.043478260869565216, 'e2f3': 0.043478260869565216, 'e2e3': 0.043478260869565216, 'e2d3': 0.043478260869565216, 'e2d2': 0.043478260869565216, 'e2f1': 0.043478260869565216, 'e2e1': 0.043478260869565216, 'e2d1': 0.043478260869565216, 'h4h3': 0.043478260869565216, 'c4c3': 0.043478260869565216, 'f2f1q': 0.043478260869565216, 'f2f1r': 0.043478260869565216, 'f2f1b': 0.043478260869565216, 'f2f1n': 0.043478260869565216}</t>
+        </is>
+      </c>
+      <c r="C293" t="b">
+        <v>0</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>8/7K/8/3b4/2p4p/8/1b2kp2/8 w - - 8 91</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>{'h7h6': 0.46875, 'h7g6': 0.5}</t>
+        </is>
+      </c>
+      <c r="C294" t="b">
+        <v>1</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>8/8/6K1/3b4/2p4p/8/1b2kp2/8 b - - 9 91</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>{'d5g8': 0.021739130434782608, 'd5a8': 0.021739130434782608, 'd5f7': 0.021739130434782608, 'd5b7': 0.021739130434782608, 'd5e6': 0.021739130434782608, 'd5c6': 0.021739130434782608, 'd5e4': 0.021739130434782608, 'd5f3': 0.021739130434782608, 'd5g2': 0.021739130434782608, 'd5h1': 0.021739130434782608, 'e2f3': 0.021739130434782608, 'e2e3': 0.021739130434782608, 'e2d3': 0.021739130434782608, 'e2d2': 0.021739130434782608, 'e2f1': 0.021739130434782608, 'e2e1': 0.021739130434782608, 'e2d1': 0.021739130434782608, 'b2h8': 0.021739130434782608, 'b2g7': 0.043478260869565216, 'b2f6': 0.043478260869565216, 'b2e5': 0.021739130434782608, 'b2d4': 0.043478260869565216, 'b2c3': 0.043478260869565216, 'b2a3': 0.043478260869565216, 'b2c1': 0.043478260869565216, 'b2a1': 0.043478260869565216, 'h4h3': 0.043478260869565216, 'c4c3': 0.043478260869565216, 'f2f1q': 0.043478260869565216, 'f2f1r': 0.043478260869565216, 'f2f1b': 0.043478260869565216, 'f2f1n': 0.043478260869565216}</t>
+        </is>
+      </c>
+      <c r="C295" t="b">
+        <v>0</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>8/6b1/6K1/3b4/2p4p/8/4kp2/8 w - - 10 92</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>{'g6h7': 0.15625, 'g6g7': 0.1875, 'g6h5': 0.21875, 'g6g5': 0.21875, 'g6f5': 0.1875}</t>
+        </is>
+      </c>
+      <c r="C296" t="b">
+        <v>1</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p4p/8/4kp2/8 b - - 11 92</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e2f3': 0.02702702702702703, 'e2e3': 0.02702702702702703, 'e2d3': 0.02702702702702703, 'e2d2': 0.02702702702702703, 'e2f1': 0.02702702702702703, 'e2e1': 0.02702702702702703, 'e2d1': 0.02702702702702703, 'h4h3': 0.05405405405405406, 'c4c3': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.02702702702702703, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C297" t="b">
+        <v>0</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 0 93</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C298" t="b">
+        <v>1</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 1 93</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C299" t="b">
+        <v>0</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 2 94</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C300" t="b">
+        <v>1</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 3 94</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C301" t="b">
+        <v>0</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 4 95</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C302" t="b">
+        <v>1</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 5 95</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C303" t="b">
+        <v>0</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/4k3 w - - 6 96</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C304" t="b">
+        <v>1</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/4k3 b - - 7 96</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e1e2': 0.05405405405405406, 'e1d2': 0.02702702702702703, 'e1f1': 0.02702702702702703, 'e1d1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C305" t="b">
+        <v>0</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 8 97</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C306" t="b">
+        <v>1</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 9 97</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C307" t="b">
+        <v>0</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 10 98</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C308" t="b">
+        <v>1</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 11 98</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C309" t="b">
+        <v>0</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 12 99</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C310" t="b">
+        <v>1</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 13 99</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C311" t="b">
+        <v>0</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/4k3 w - - 14 100</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C312" t="b">
+        <v>1</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/4k3 b - - 15 100</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e1e2': 0.05405405405405406, 'e1d2': 0.02702702702702703, 'e1f1': 0.02702702702702703, 'e1d1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C313" t="b">
+        <v>0</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 16 101</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C314" t="b">
+        <v>1</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 17 101</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C315" t="b">
+        <v>0</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 18 102</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C316" t="b">
+        <v>1</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 19 102</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C317" t="b">
+        <v>0</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 20 103</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C318" t="b">
+        <v>1</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 21 103</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C319" t="b">
+        <v>0</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/4k3 w - - 22 104</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C320" t="b">
+        <v>1</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/4k3 b - - 23 104</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e1e2': 0.05405405405405406, 'e1d2': 0.02702702702702703, 'e1f1': 0.02702702702702703, 'e1d1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C321" t="b">
+        <v>0</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 24 105</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C322" t="b">
+        <v>1</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 25 105</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C323" t="b">
+        <v>0</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 26 106</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C324" t="b">
+        <v>1</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 27 106</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C325" t="b">
+        <v>0</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 28 107</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C326" t="b">
+        <v>1</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 29 107</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C327" t="b">
+        <v>0</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/4k3 w - - 30 108</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C328" t="b">
+        <v>1</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/4k3 b - - 31 108</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e1e2': 0.05405405405405406, 'e1d2': 0.02702702702702703, 'e1f1': 0.02702702702702703, 'e1d1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C329" t="b">
+        <v>0</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 32 109</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C330" t="b">
+        <v>1</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 33 109</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C331" t="b">
+        <v>0</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 34 110</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C332" t="b">
+        <v>1</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 35 110</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C333" t="b">
+        <v>0</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 36 111</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C334" t="b">
+        <v>1</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 37 111</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C335" t="b">
+        <v>0</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/4k3 w - - 38 112</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C336" t="b">
+        <v>1</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/4k3 b - - 39 112</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e1e2': 0.05405405405405406, 'e1d2': 0.02702702702702703, 'e1f1': 0.02702702702702703, 'e1d1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C337" t="b">
+        <v>0</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 40 113</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C338" t="b">
+        <v>1</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 41 113</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C339" t="b">
+        <v>0</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 42 114</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C340" t="b">
+        <v>1</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 43 114</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C341" t="b">
+        <v>0</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 44 115</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C342" t="b">
+        <v>1</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 45 115</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C343" t="b">
+        <v>0</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/4k3 w - - 46 116</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C344" t="b">
+        <v>1</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/4k3 b - - 47 116</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e1e2': 0.05405405405405406, 'e1d2': 0.02702702702702703, 'e1f1': 0.02702702702702703, 'e1d1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C345" t="b">
+        <v>0</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 48 117</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C346" t="b">
+        <v>1</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 49 117</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C347" t="b">
+        <v>0</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 50 118</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C348" t="b">
+        <v>1</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 51 118</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C349" t="b">
+        <v>0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 52 119</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C350" t="b">
+        <v>1</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 53 119</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C351" t="b">
+        <v>0</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/4k3 w - - 54 120</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C352" t="b">
+        <v>1</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/4k3 b - - 55 120</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e1e2': 0.05405405405405406, 'e1d2': 0.02702702702702703, 'e1f1': 0.02702702702702703, 'e1d1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C353" t="b">
+        <v>0</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 56 121</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C354" t="b">
+        <v>1</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 57 121</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C355" t="b">
+        <v>0</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 58 122</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C356" t="b">
+        <v>1</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 59 122</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C357" t="b">
+        <v>0</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 60 123</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C358" t="b">
+        <v>1</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 61 123</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C359" t="b">
+        <v>0</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/4k3 w - - 62 124</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C360" t="b">
+        <v>1</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/4k3 b - - 63 124</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e1e2': 0.05405405405405406, 'e1d2': 0.02702702702702703, 'e1f1': 0.02702702702702703, 'e1d1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C361" t="b">
+        <v>0</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 64 125</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C362" t="b">
+        <v>1</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 65 125</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C363" t="b">
+        <v>0</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 66 126</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C364" t="b">
+        <v>1</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 67 126</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C365" t="b">
+        <v>0</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 68 127</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C366" t="b">
+        <v>1</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 69 127</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C367" t="b">
+        <v>0</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/4k3 w - - 70 128</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C368" t="b">
+        <v>1</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/4k3 b - - 71 128</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e1e2': 0.05405405405405406, 'e1d2': 0.02702702702702703, 'e1f1': 0.02702702702702703, 'e1d1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C369" t="b">
+        <v>0</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 72 129</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C370" t="b">
+        <v>1</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 73 129</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C371" t="b">
+        <v>0</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 74 130</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C372" t="b">
+        <v>1</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 75 130</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C373" t="b">
+        <v>0</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 76 131</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C374" t="b">
+        <v>1</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 77 131</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C375" t="b">
+        <v>0</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/4k3 w - - 78 132</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C376" t="b">
+        <v>1</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/4k3 b - - 79 132</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e1e2': 0.05405405405405406, 'e1d2': 0.02702702702702703, 'e1f1': 0.02702702702702703, 'e1d1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C377" t="b">
+        <v>0</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 80 133</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C378" t="b">
+        <v>1</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 81 133</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C379" t="b">
+        <v>0</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 82 134</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C380" t="b">
+        <v>1</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 83 134</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C381" t="b">
+        <v>0</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 84 135</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C382" t="b">
+        <v>1</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 85 135</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C383" t="b">
+        <v>0</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/4k3 w - - 86 136</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C384" t="b">
+        <v>1</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/4k3 b - - 87 136</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e1e2': 0.05405405405405406, 'e1d2': 0.02702702702702703, 'e1f1': 0.02702702702702703, 'e1d1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C385" t="b">
+        <v>0</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 88 137</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C386" t="b">
+        <v>1</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 89 137</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C387" t="b">
+        <v>0</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 90 138</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C388" t="b">
+        <v>1</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 91 138</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C389" t="b">
+        <v>0</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 92 139</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C390" t="b">
+        <v>1</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 93 139</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C391" t="b">
+        <v>0</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/4k3 w - - 94 140</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C392" t="b">
+        <v>1</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/4k3 b - - 95 140</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e1e2': 0.05405405405405406, 'e1d2': 0.02702702702702703, 'e1f1': 0.02702702702702703, 'e1d1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C393" t="b">
+        <v>0</v>
+      </c>
+      <c r="D393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 96 141</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C394" t="b">
+        <v>1</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 97 141</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C395" t="b">
+        <v>0</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 98 142</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C396" t="b">
+        <v>1</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 99 142</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C397" t="b">
+        <v>0</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 100 143</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C398" t="b">
+        <v>1</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 101 143</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C399" t="b">
+        <v>0</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/4k3 w - - 102 144</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C400" t="b">
+        <v>1</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/4k3 b - - 103 144</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e1e2': 0.05405405405405406, 'e1d2': 0.02702702702702703, 'e1f1': 0.02702702702702703, 'e1d1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C401" t="b">
+        <v>0</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 104 145</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C402" t="b">
+        <v>1</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 105 145</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C403" t="b">
+        <v>0</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 106 146</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C404" t="b">
+        <v>1</v>
+      </c>
+      <c r="D404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 107 146</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C405" t="b">
+        <v>0</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 108 147</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C406" t="b">
+        <v>1</v>
+      </c>
+      <c r="D406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 109 147</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C407" t="b">
+        <v>0</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/4k3 w - - 110 148</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C408" t="b">
+        <v>1</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/4k3 b - - 111 148</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e1e2': 0.05405405405405406, 'e1d2': 0.02702702702702703, 'e1f1': 0.02702702702702703, 'e1d1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C409" t="b">
+        <v>0</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 112 149</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C410" t="b">
+        <v>1</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 113 149</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C411" t="b">
+        <v>0</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 114 150</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C412" t="b">
+        <v>1</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 115 150</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C413" t="b">
+        <v>0</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 116 151</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C414" t="b">
+        <v>1</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 117 151</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C415" t="b">
+        <v>0</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/4k3 w - - 118 152</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C416" t="b">
+        <v>1</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/4k3 b - - 119 152</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e1e2': 0.05405405405405406, 'e1d2': 0.02702702702702703, 'e1f1': 0.02702702702702703, 'e1d1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C417" t="b">
+        <v>0</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 120 153</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C418" t="b">
+        <v>1</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 121 153</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C419" t="b">
+        <v>0</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 122 154</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C420" t="b">
+        <v>1</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 123 154</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C421" t="b">
+        <v>0</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 124 155</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C422" t="b">
+        <v>1</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 125 155</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C423" t="b">
+        <v>0</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/4k3 w - - 126 156</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C424" t="b">
+        <v>1</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/4k3 b - - 127 156</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e1e2': 0.05405405405405406, 'e1d2': 0.02702702702702703, 'e1f1': 0.02702702702702703, 'e1d1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C425" t="b">
+        <v>0</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 128 157</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C426" t="b">
+        <v>1</v>
+      </c>
+      <c r="D426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 129 157</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C427" t="b">
+        <v>0</v>
+      </c>
+      <c r="D427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 130 158</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C428" t="b">
+        <v>1</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 131 158</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C429" t="b">
+        <v>0</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 132 159</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C430" t="b">
+        <v>1</v>
+      </c>
+      <c r="D430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 133 159</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C431" t="b">
+        <v>0</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/4k3 w - - 134 160</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C432" t="b">
+        <v>1</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/4k3 b - - 135 160</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e1e2': 0.05405405405405406, 'e1d2': 0.02702702702702703, 'e1f1': 0.02702702702702703, 'e1d1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C433" t="b">
+        <v>0</v>
+      </c>
+      <c r="D433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 136 161</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C434" t="b">
+        <v>1</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 137 161</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C435" t="b">
+        <v>0</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 138 162</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C436" t="b">
+        <v>1</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 139 162</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C437" t="b">
+        <v>0</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 140 163</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C438" t="b">
+        <v>1</v>
+      </c>
+      <c r="D438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 141 163</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C439" t="b">
+        <v>0</v>
+      </c>
+      <c r="D439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/4k3 w - - 142 164</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C440" t="b">
+        <v>1</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/4k3 b - - 143 164</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'e1e2': 0.05405405405405406, 'e1d2': 0.02702702702702703, 'e1f1': 0.02702702702702703, 'e1d1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.05405405405405406, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C441" t="b">
+        <v>0</v>
+      </c>
+      <c r="D441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/4kp2/8 w - - 144 165</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C442" t="b">
+        <v>1</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/4kp2/8 b - - 145 165</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'e2f3': 0.02564102564102564, 'e2e3': 0.02564102564102564, 'e2d3': 0.02564102564102564, 'e2d2': 0.02564102564102564, 'e2f1': 0.02564102564102564, 'e2e1': 0.02564102564102564, 'e2d1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.05128205128205128, 'f2f1b': 0.05128205128205128, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C443" t="b">
+        <v>0</v>
+      </c>
+      <c r="D443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/5p2/3k4 w - - 146 166</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>{'h4h5': 0.21875, 'h4g5': 0.15625, 'h4g4': 0.1875, 'h4h3': 0.1875, 'h4g3': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C444" t="b">
+        <v>1</v>
+      </c>
+      <c r="D444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/5p2/3k4 b - - 147 166</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02702702702702703, 'g7f8': 0.02702702702702703, 'g7h6': 0.02702702702702703, 'g7f6': 0.02702702702702703, 'g7e5': 0.02702702702702703, 'g7d4': 0.02702702702702703, 'g7c3': 0.02702702702702703, 'g7b2': 0.02702702702702703, 'g7a1': 0.02702702702702703, 'd5g8': 0.02702702702702703, 'd5a8': 0.02702702702702703, 'd5f7': 0.02702702702702703, 'd5b7': 0.02702702702702703, 'd5e6': 0.02702702702702703, 'd5c6': 0.02702702702702703, 'd5e4': 0.02702702702702703, 'd5f3': 0.02702702702702703, 'd5g2': 0.02702702702702703, 'd5h1': 0.02702702702702703, 'd1e2': 0.02702702702702703, 'd1d2': 0.05405405405405406, 'd1c2': 0.02702702702702703, 'd1e1': 0.02702702702702703, 'd1c1': 0.02702702702702703, 'c4c3': 0.05405405405405406, 'h3h2': 0.05405405405405406, 'f2f1q': 0.02702702702702703, 'f2f1r': 0.05405405405405406, 'f2f1b': 0.05405405405405406, 'f2f1n': 0.05405405405405406}</t>
+        </is>
+      </c>
+      <c r="C445" t="b">
+        <v>0</v>
+      </c>
+      <c r="D445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b3K/2p5/7p/3k1p2/8 w - - 148 167</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>{'h5g6': 0.21875, 'h5g5': 0.25, 'h5h4': 0.28125, 'h5g4': 0.21875}</t>
+        </is>
+      </c>
+      <c r="C446" t="b">
+        <v>1</v>
+      </c>
+      <c r="D446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>8/6b1/8/3b4/2p4K/7p/3k1p2/8 b - - 149 167</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>{'g7h8': 0.02564102564102564, 'g7f8': 0.02564102564102564, 'g7h6': 0.02564102564102564, 'g7f6': 0.02564102564102564, 'g7e5': 0.02564102564102564, 'g7d4': 0.02564102564102564, 'g7c3': 0.02564102564102564, 'g7b2': 0.02564102564102564, 'g7a1': 0.02564102564102564, 'd5g8': 0.02564102564102564, 'd5a8': 0.02564102564102564, 'd5f7': 0.02564102564102564, 'd5b7': 0.02564102564102564, 'd5e6': 0.02564102564102564, 'd5c6': 0.02564102564102564, 'd5e4': 0.02564102564102564, 'd5f3': 0.02564102564102564, 'd5g2': 0.02564102564102564, 'd5h1': 0.02564102564102564, 'd2e3': 0.02564102564102564, 'd2d3': 0.02564102564102564, 'd2c3': 0.02564102564102564, 'd2e2': 0.02564102564102564, 'd2c2': 0.02564102564102564, 'd2e1': 0.05128205128205128, 'd2d1': 0.02564102564102564, 'd2c1': 0.05128205128205128, 'c4c3': 0.05128205128205128, 'h3h2': 0.05128205128205128, 'f2f1q': 0.02564102564102564, 'f2f1r': 0.02564102564102564, 'f2f1b': 0.02564102564102564, 'f2f1n': 0.05128205128205128}</t>
+        </is>
+      </c>
+      <c r="C447" t="b">
+        <v>0</v>
+      </c>
+      <c r="D447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/pppppppp/8/8/8/8/PPPPPPPP/RNBQKBNR w KQkq - 0 1</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>{'g1h3': 0.02, 'g1f3': 0.02, 'b1c3': 0.02, 'b1a3': 0.02, 'h2h3': 0.02, 'g2g3': 0.02, 'f2f3': 0.02, 'e2e3': 0.02, 'd2d3': 0.02, 'c2c3': 0.02, 'b2b3': 0.02, 'a2a3': 0.02, 'h2h4': 0.02, 'g2g4': 0.02, 'f2f4': 0.02, 'e2e4': 0.02, 'd2d4': 0.02, 'c2c4': 0.02, 'b2b4': 0.16, 'a2a4': 0.48}</t>
+        </is>
+      </c>
+      <c r="C448" t="b">
+        <v>1</v>
+      </c>
+      <c r="D448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/pppppppp/8/8/P7/8/1PPPPPPP/RNBQKBNR b KQkq - 0 1</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>{'g8h6': 0.013513513513513514, 'g8f6': 0.013513513513513514, 'b8c6': 0.013513513513513514, 'b8a6': 0.013513513513513514, 'h7h6': 0.013513513513513514, 'g7g6': 0.013513513513513514, 'f7f6': 0.013513513513513514, 'e7e6': 0.013513513513513514, 'd7d6': 0.013513513513513514, 'c7c6': 0.013513513513513514, 'b7b6': 0.013513513513513514, 'a7a6': 0.013513513513513514, 'h7h5': 0.013513513513513514, 'g7g5': 0.013513513513513514, 'f7f5': 0.013513513513513514, 'e7e5': 0.013513513513513514, 'd7d5': 0.35135135135135137, 'c7c5': 0.36486486486486486, 'b7b5': 0.04054054054054054, 'a7a5': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C449" t="b">
+        <v>0</v>
+      </c>
+      <c r="D449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/pp1ppppp/8/2p5/P7/8/1PPPPPPP/RNBQKBNR w KQkq - 0 2</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>{'g1h3': 0.012987012987012988, 'g1f3': 0.012987012987012988, 'b1c3': 0.012987012987012988, 'b1a3': 0.012987012987012988, 'a1a3': 0.012987012987012988, 'a1a2': 0.012987012987012988, 'a4a5': 0.012987012987012988, 'h2h3': 0.012987012987012988, 'g2g3': 0.012987012987012988, 'f2f3': 0.012987012987012988, 'e2e3': 0.012987012987012988, 'd2d3': 0.012987012987012988, 'c2c3': 0.012987012987012988, 'b2b3': 0.012987012987012988, 'h2h4': 0.012987012987012988, 'g2g4': 0.012987012987012988, 'f2f4': 0.012987012987012988, 'e2e4': 0.012987012987012988, 'd2d4': 0.012987012987012988, 'c2c4': 0.35064935064935066, 'b2b4': 0.38961038961038963}</t>
+        </is>
+      </c>
+      <c r="C450" t="b">
+        <v>1</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/pp1ppppp/8/2p5/PP6/8/2PPPPPP/RNBQKBNR b KQkq - 0 2</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>{'g8h6': 0.0125, 'g8f6': 0.0125, 'd8c7': 0.0125, 'd8b6': 0.0125, 'd8a5': 0.0125, 'b8c6': 0.0125, 'b8a6': 0.0125, 'c5b4': 0.0125, 'h7h6': 0.0125, 'g7g6': 0.0125, 'f7f6': 0.0125, 'e7e6': 0.0125, 'd7d6': 0.0125, 'b7b6': 0.0125, 'a7a6': 0.0125, 'c5c4': 0.0125, 'h7h5': 0.0125, 'g7g5': 0.3625, 'f7f5': 0.0125, 'e7e5': 0.0125, 'd7d5': 0.3625, 'b7b5': 0.0125, 'a7a5': 0.0125}</t>
+        </is>
+      </c>
+      <c r="C451" t="b">
+        <v>0</v>
+      </c>
+      <c r="D451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/pp1ppp1p/8/2p3p1/PP6/8/2PPPPPP/RNBQKBNR w KQkq - 0 3</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>{'g1h3': 0.012658227848101266, 'g1f3': 0.012658227848101266, 'c1a3': 0.012658227848101266, 'c1b2': 0.012658227848101266, 'b1c3': 0.012658227848101266, 'b1a3': 0.012658227848101266, 'a1a3': 0.012658227848101266, 'a1a2': 0.012658227848101266, 'b4c5': 0.012658227848101266, 'b4b5': 0.012658227848101266, 'a4a5': 0.012658227848101266, 'h2h3': 0.012658227848101266, 'g2g3': 0.012658227848101266, 'f2f3': 0.012658227848101266, 'e2e3': 0.012658227848101266, 'd2d3': 0.35443037974683544, 'c2c3': 0.012658227848101266, 'h2h4': 0.012658227848101266, 'g2g4': 0.012658227848101266, 'f2f4': 0.012658227848101266, 'e2e4': 0.012658227848101266, 'd2d4': 0.012658227848101266, 'c2c4': 0.3670886075949367}</t>
+        </is>
+      </c>
+      <c r="C452" t="b">
+        <v>1</v>
+      </c>
+      <c r="D452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/pp1ppp1p/8/2p3p1/PPP5/8/3PPPPP/RNBQKBNR b KQkq - 0 3</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>{'g8h6': 0.012658227848101266, 'g8f6': 0.012658227848101266, 'f8g7': 0.012658227848101266, 'f8h6': 0.012658227848101266, 'd8c7': 0.012658227848101266, 'd8b6': 0.012658227848101266, 'd8a5': 0.012658227848101266, 'b8c6': 0.012658227848101266, 'b8a6': 0.012658227848101266, 'c5b4': 0.012658227848101266, 'h7h6': 0.012658227848101266, 'f7f6': 0.012658227848101266, 'e7e6': 0.012658227848101266, 'd7d6': 0.012658227848101266, 'b7b6': 0.012658227848101266, 'a7a6': 0.012658227848101266, 'g5g4': 0.012658227848101266, 'h7h5': 0.012658227848101266, 'f7f5': 0.012658227848101266, 'e7e5': 0.012658227848101266, 'd7d5': 0.3924050632911392, 'b7b5': 0.3291139240506329, 'a7a5': 0.012658227848101266}</t>
+        </is>
+      </c>
+      <c r="C453" t="b">
+        <v>0</v>
+      </c>
+      <c r="D453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/pp2pp1p/8/2pp2p1/PPP5/8/3PPPPP/RNBQKBNR w KQkq - 0 4</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>{'g1h3': 0.012345679012345678, 'g1f3': 0.012345679012345678, 'd1b3': 0.012345679012345678, 'd1c2': 0.012345679012345678, 'c1a3': 0.012345679012345678, 'c1b2': 0.012345679012345678, 'b1c3': 0.012345679012345678, 'b1a3': 0.012345679012345678, 'a1a3': 0.012345679012345678, 'a1a2': 0.012345679012345678, 'c4d5': 0.012345679012345678, 'b4c5': 0.012345679012345678, 'b4b5': 0.012345679012345678, 'a4a5': 0.012345679012345678, 'h2h3': 0.012345679012345678, 'g2g3': 0.012345679012345678, 'f2f3': 0.012345679012345678, 'e2e3': 0.012345679012345678, 'd2d3': 0.4691358024691358, 'h2h4': 0.012345679012345678, 'g2g4': 0.012345679012345678, 'f2f4': 0.24691358024691357, 'e2e4': 0.012345679012345678, 'd2d4': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C454" t="b">
+        <v>1</v>
+      </c>
+      <c r="D454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/pp2pp1p/8/2pp2p1/PPP5/3P4/4PPPP/RNBQKBNR b KQkq - 0 4</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>{'g8h6': 0.011363636363636364, 'g8f6': 0.011363636363636364, 'f8g7': 0.011363636363636364, 'f8h6': 0.011363636363636364, 'e8d7': 0.011363636363636364, 'd8d7': 0.011363636363636364, 'd8c7': 0.011363636363636364, 'd8d6': 0.011363636363636364, 'd8b6': 0.011363636363636364, 'd8a5': 0.011363636363636364, 'c8d7': 0.011363636363636364, 'c8e6': 0.011363636363636364, 'c8f5': 0.011363636363636364, 'c8g4': 0.011363636363636364, 'c8h3': 0.011363636363636364, 'b8d7': 0.011363636363636364, 'b8c6': 0.011363636363636364, 'b8a6': 0.011363636363636364, 'd5c4': 0.011363636363636364, 'c5b4': 0.011363636363636364, 'h7h6': 0.011363636363636364, 'f7f6': 0.011363636363636364, 'e7e6': 0.011363636363636364, 'b7b6': 0.011363636363636364, 'a7a6': 0.011363636363636364, 'g5g4': 0.48863636363636365, 'd5d4': 0.011363636363636364, 'h7h5': 0.011363636363636364, 'f7f5': 0.011363636363636364, 'e7e5': 0.011363636363636364, 'b7b5': 0.1590909090909091, 'a7a5': 0.011363636363636364}</t>
+        </is>
+      </c>
+      <c r="C455" t="b">
+        <v>0</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/pp2pp1p/8/2pp4/PPP3p1/3P4/4PPPP/RNBQKBNR w KQkq - 0 5</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>{'g1h3': 0.010752688172043012, 'g1f3': 0.010752688172043012, 'e1d2': 0.010752688172043012, 'd1b3': 0.010752688172043012, 'd1d2': 0.010752688172043012, 'd1c2': 0.010752688172043012, 'c1h6': 0.010752688172043012, 'c1g5': 0.010752688172043012, 'c1f4': 0.010752688172043012, 'c1e3': 0.010752688172043012, 'c1a3': 0.010752688172043012, 'c1d2': 0.010752688172043012, 'c1b2': 0.010752688172043012, 'b1c3': 0.010752688172043012, 'b1a3': 0.010752688172043012, 'b1d2': 0.010752688172043012, 'a1a3': 0.010752688172043012, 'a1a2': 0.010752688172043012, 'c4d5': 0.010752688172043012, 'b4c5': 0.010752688172043012, 'b4b5': 0.010752688172043012, 'a4a5': 0.010752688172043012, 'd3d4': 0.010752688172043012, 'h2h3': 0.010752688172043012, 'g2g3': 0.27956989247311825, 'f2f3': 0.010752688172043012, 'e2e3': 0.40860215053763443, 'h2h4': 0.010752688172043012, 'f2f4': 0.010752688172043012, 'e2e4': 0.010752688172043012}</t>
+        </is>
+      </c>
+      <c r="C456" t="b">
+        <v>1</v>
+      </c>
+      <c r="D456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/pp2pp1p/8/2pp4/PPP3p1/3PP3/5PPP/RNBQKBNR b KQkq - 0 5</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>{'g8h6': 0.011363636363636364, 'g8f6': 0.011363636363636364, 'f8g7': 0.011363636363636364, 'f8h6': 0.011363636363636364, 'e8d7': 0.011363636363636364, 'd8d7': 0.011363636363636364, 'd8c7': 0.011363636363636364, 'd8d6': 0.011363636363636364, 'd8b6': 0.011363636363636364, 'd8a5': 0.011363636363636364, 'c8d7': 0.011363636363636364, 'c8e6': 0.011363636363636364, 'c8f5': 0.011363636363636364, 'b8d7': 0.011363636363636364, 'b8c6': 0.011363636363636364, 'b8a6': 0.011363636363636364, 'd5c4': 0.011363636363636364, 'c5b4': 0.011363636363636364, 'h7h6': 0.011363636363636364, 'f7f6': 0.011363636363636364, 'e7e6': 0.011363636363636364, 'b7b6': 0.011363636363636364, 'a7a6': 0.011363636363636364, 'd5d4': 0.011363636363636364, 'g4g3': 0.5113636363636364, 'h7h5': 0.011363636363636364, 'f7f5': 0.011363636363636364, 'e7e5': 0.011363636363636364, 'b7b5': 0.1590909090909091, 'a7a5': 0.011363636363636364}</t>
+        </is>
+      </c>
+      <c r="C457" t="b">
+        <v>0</v>
+      </c>
+      <c r="D457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/pp2pp1p/8/2pp4/PPP5/3PP1p1/5PPP/RNBQKBNR w KQkq - 0 6</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>{'g1h3': 0.010526315789473684, 'g1f3': 0.010526315789473684, 'g1e2': 0.010526315789473684, 'f1e2': 0.010526315789473684, 'e1e2': 0.010526315789473684, 'e1d2': 0.010526315789473684, 'd1h5': 0.010526315789473684, 'd1g4': 0.010526315789473684, 'd1f3': 0.010526315789473684, 'd1b3': 0.010526315789473684, 'd1e2': 0.010526315789473684, 'd1d2': 0.010526315789473684, 'd1c2': 0.010526315789473684, 'c1a3': 0.010526315789473684, 'c1d2': 0.010526315789473684, 'c1b2': 0.010526315789473684, 'b1c3': 0.010526315789473684, 'b1a3': 0.010526315789473684, 'b1d2': 0.010526315789473684, 'a1a3': 0.010526315789473684, 'a1a2': 0.010526315789473684, 'c4d5': 0.010526315789473684, 'b4c5': 0.010526315789473684, 'h2g3': 0.010526315789473684, 'f2g3': 0.010526315789473684, 'b4b5': 0.010526315789473684, 'a4a5': 0.010526315789473684, 'e3e4': 0.010526315789473684, 'd3d4': 0.010526315789473684, 'h2h3': 0.43157894736842106, 'f2f3': 0.010526315789473684, 'h2h4': 0.010526315789473684, 'f2f4': 0.23157894736842105}</t>
+        </is>
+      </c>
+      <c r="C458" t="b">
+        <v>1</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/pp2pp1p/8/2pp4/PPP5/3PP1pP/5PP1/RNBQKBNR b KQkq - 0 6</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>{'g8h6': 0.01098901098901099, 'g8f6': 0.01098901098901099, 'f8g7': 0.01098901098901099, 'f8h6': 0.01098901098901099, 'e8d7': 0.01098901098901099, 'd8d7': 0.01098901098901099, 'd8c7': 0.01098901098901099, 'd8d6': 0.01098901098901099, 'd8b6': 0.01098901098901099, 'd8a5': 0.01098901098901099, 'c8d7': 0.01098901098901099, 'c8e6': 0.01098901098901099, 'c8f5': 0.01098901098901099, 'c8g4': 0.01098901098901099, 'c8h3': 0.01098901098901099, 'b8d7': 0.01098901098901099, 'b8c6': 0.01098901098901099, 'b8a6': 0.01098901098901099, 'd5c4': 0.01098901098901099, 'c5b4': 0.01098901098901099, 'g3f2': 0.01098901098901099, 'h7h6': 0.01098901098901099, 'f7f6': 0.01098901098901099, 'e7e6': 0.01098901098901099, 'b7b6': 0.01098901098901099, 'a7a6': 0.01098901098901099, 'd5d4': 0.01098901098901099, 'h7h5': 0.01098901098901099, 'f7f5': 0.01098901098901099, 'e7e5': 0.16483516483516483, 'b7b5': 0.4945054945054945, 'a7a5': 0.01098901098901099}</t>
+        </is>
+      </c>
+      <c r="C459" t="b">
+        <v>0</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3pp1p/8/1ppp4/PPP5/3PP1pP/5PP1/RNBQKBNR w KQkq - 0 7</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>{'h1h2': 0.010526315789473684, 'g1f3': 0.010526315789473684, 'g1e2': 0.010526315789473684, 'f1e2': 0.010526315789473684, 'e1e2': 0.010526315789473684, 'e1d2': 0.010526315789473684, 'd1h5': 0.010526315789473684, 'd1g4': 0.010526315789473684, 'd1f3': 0.010526315789473684, 'd1b3': 0.010526315789473684, 'd1e2': 0.010526315789473684, 'd1d2': 0.010526315789473684, 'd1c2': 0.010526315789473684, 'c1a3': 0.010526315789473684, 'c1d2': 0.010526315789473684, 'c1b2': 0.010526315789473684, 'b1c3': 0.010526315789473684, 'b1a3': 0.010526315789473684, 'b1d2': 0.010526315789473684, 'a1a3': 0.010526315789473684, 'a1a2': 0.010526315789473684, 'c4d5': 0.010526315789473684, 'c4b5': 0.010526315789473684, 'b4c5': 0.010526315789473684, 'a4b5': 0.010526315789473684, 'f2g3': 0.010526315789473684, 'a4a5': 0.010526315789473684, 'h3h4': 0.010526315789473684, 'e3e4': 0.24210526315789474, 'd3d4': 0.010526315789473684, 'f2f3': 0.010526315789473684, 'f2f4': 0.43157894736842106}</t>
+        </is>
+      </c>
+      <c r="C460" t="b">
+        <v>1</v>
+      </c>
+      <c r="D460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3pp1p/8/1ppp4/PPP2P2/3PP1pP/6P1/RNBQKBNR b KQkq - 0 7</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>{'g8h6': 0.01098901098901099, 'g8f6': 0.01098901098901099, 'f8g7': 0.01098901098901099, 'f8h6': 0.01098901098901099, 'e8d7': 0.01098901098901099, 'd8d7': 0.01098901098901099, 'd8c7': 0.01098901098901099, 'd8d6': 0.01098901098901099, 'd8b6': 0.01098901098901099, 'd8a5': 0.01098901098901099, 'c8d7': 0.01098901098901099, 'c8b7': 0.01098901098901099, 'c8e6': 0.01098901098901099, 'c8a6': 0.01098901098901099, 'c8f5': 0.01098901098901099, 'c8g4': 0.01098901098901099, 'c8h3': 0.01098901098901099, 'b8d7': 0.01098901098901099, 'b8c6': 0.01098901098901099, 'b8a6': 0.01098901098901099, 'd5c4': 0.01098901098901099, 'c5b4': 0.01098901098901099, 'b5c4': 0.01098901098901099, 'b5a4': 0.01098901098901099, 'h7h6': 0.4725274725274725, 'f7f6': 0.17582417582417584, 'e7e6': 0.01098901098901099, 'a7a6': 0.01098901098901099, 'd5d4': 0.01098901098901099, 'h7h5': 0.01098901098901099, 'f7f5': 0.01098901098901099, 'e7e5': 0.01098901098901099, 'a7a5': 0.01098901098901099}</t>
+        </is>
+      </c>
+      <c r="C461" t="b">
+        <v>0</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3pp2/7p/1ppp4/PPP2P2/3PP1pP/6P1/RNBQKBNR w KQkq - 0 8</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>{'h1h2': 0.010752688172043012, 'g1f3': 0.010752688172043012, 'g1e2': 0.010752688172043012, 'f1e2': 0.010752688172043012, 'e1e2': 0.010752688172043012, 'e1d2': 0.010752688172043012, 'd1h5': 0.010752688172043012, 'd1g4': 0.010752688172043012, 'd1f3': 0.010752688172043012, 'd1b3': 0.010752688172043012, 'd1e2': 0.010752688172043012, 'd1d2': 0.010752688172043012, 'd1c2': 0.010752688172043012, 'c1a3': 0.010752688172043012, 'c1d2': 0.010752688172043012, 'c1b2': 0.010752688172043012, 'b1c3': 0.010752688172043012, 'b1a3': 0.010752688172043012, 'b1d2': 0.010752688172043012, 'a1a3': 0.010752688172043012, 'a1a2': 0.010752688172043012, 'c4d5': 0.010752688172043012, 'c4b5': 0.010752688172043012, 'b4c5': 0.010752688172043012, 'a4b5': 0.010752688172043012, 'f4f5': 0.010752688172043012, 'a4a5': 0.010752688172043012, 'h3h4': 0.23655913978494625, 'e3e4': 0.45161290322580644, 'd3d4': 0.010752688172043012}</t>
+        </is>
+      </c>
+      <c r="C462" t="b">
+        <v>1</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3pp2/7p/1ppp4/PPP1PP2/3P2pP/6P1/RNBQKBNR b KQkq - 0 8</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.010869565217391304, 'g8f6': 0.010869565217391304, 'f8g7': 0.010869565217391304, 'e8d7': 0.010869565217391304, 'd8d7': 0.010869565217391304, 'd8c7': 0.010869565217391304, 'd8d6': 0.010869565217391304, 'd8b6': 0.010869565217391304, 'd8a5': 0.010869565217391304, 'c8d7': 0.010869565217391304, 'c8b7': 0.010869565217391304, 'c8e6': 0.010869565217391304, 'c8a6': 0.010869565217391304, 'c8f5': 0.010869565217391304, 'c8g4': 0.010869565217391304, 'c8h3': 0.010869565217391304, 'b8d7': 0.010869565217391304, 'b8c6': 0.010869565217391304, 'b8a6': 0.010869565217391304, 'd5e4': 0.010869565217391304, 'd5c4': 0.4782608695652174, 'c5b4': 0.010869565217391304, 'b5c4': 0.010869565217391304, 'b5a4': 0.010869565217391304, 'f7f6': 0.18478260869565216, 'e7e6': 0.010869565217391304, 'a7a6': 0.010869565217391304, 'h6h5': 0.010869565217391304, 'd5d4': 0.010869565217391304, 'f7f5': 0.010869565217391304, 'e7e5': 0.010869565217391304, 'a7a5': 0.010869565217391304}</t>
+        </is>
+      </c>
+      <c r="C463" t="b">
+        <v>0</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3pp2/7p/1pp5/PPp1PP2/3P2pP/6P1/RNBQKBNR w KQkq - 0 9</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>{'h1h2': 0.010638297872340425, 'g1f3': 0.010638297872340425, 'g1e2': 0.010638297872340425, 'f1e2': 0.010638297872340425, 'e1e2': 0.010638297872340425, 'e1d2': 0.010638297872340425, 'd1h5': 0.010638297872340425, 'd1g4': 0.010638297872340425, 'd1f3': 0.010638297872340425, 'd1b3': 0.010638297872340425, 'd1e2': 0.010638297872340425, 'd1d2': 0.010638297872340425, 'd1c2': 0.010638297872340425, 'c1e3': 0.010638297872340425, 'c1a3': 0.010638297872340425, 'c1d2': 0.010638297872340425, 'c1b2': 0.010638297872340425, 'b1c3': 0.010638297872340425, 'b1a3': 0.010638297872340425, 'b1d2': 0.010638297872340425, 'a1a3': 0.010638297872340425, 'a1a2': 0.010638297872340425, 'b4c5': 0.010638297872340425, 'a4b5': 0.010638297872340425, 'd3c4': 0.4787234042553192, 'f4f5': 0.010638297872340425, 'e4e5': 0.010638297872340425, 'a4a5': 0.010638297872340425, 'h3h4': 0.2127659574468085, 'd3d4': 0.010638297872340425}</t>
+        </is>
+      </c>
+      <c r="C464" t="b">
+        <v>1</v>
+      </c>
+      <c r="D464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3pp2/7p/1pp5/PPP1PP2/6pP/6P1/RNBQKBNR b KQkq - 0 9</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.010526315789473684, 'g8f6': 0.010526315789473684, 'f8g7': 0.010526315789473684, 'd8d7': 0.010526315789473684, 'd8c7': 0.010526315789473684, 'd8d6': 0.010526315789473684, 'd8b6': 0.010526315789473684, 'd8d5': 0.010526315789473684, 'd8a5': 0.010526315789473684, 'd8d4': 0.010526315789473684, 'd8d3': 0.010526315789473684, 'd8d2': 0.010526315789473684, 'd8d1': 0.010526315789473684, 'c8d7': 0.010526315789473684, 'c8b7': 0.010526315789473684, 'c8e6': 0.010526315789473684, 'c8a6': 0.010526315789473684, 'c8f5': 0.010526315789473684, 'c8g4': 0.010526315789473684, 'c8h3': 0.010526315789473684, 'b8d7': 0.010526315789473684, 'b8c6': 0.010526315789473684, 'b8a6': 0.010526315789473684, 'c5b4': 0.010526315789473684, 'b5c4': 0.010526315789473684, 'b5a4': 0.010526315789473684, 'f7f6': 0.5263157894736842, 'e7e6': 0.010526315789473684, 'a7a6': 0.010526315789473684, 'h6h5': 0.1368421052631579, 'f7f5': 0.010526315789473684, 'e7e5': 0.010526315789473684, 'a7a5': 0.010526315789473684}</t>
+        </is>
+      </c>
+      <c r="C465" t="b">
+        <v>0</v>
+      </c>
+      <c r="D465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3p3/5p1p/1pp5/PPP1PP2/6pP/6P1/RNBQKBNR w KQkq - 0 10</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>{'h1h2': 0.01, 'g1f3': 0.01, 'g1e2': 0.01, 'f1d3': 0.01, 'f1e2': 0.01, 'e1e2': 0.01, 'd1d8': 0.01, 'd1d7': 0.01, 'd1d6': 0.01, 'd1h5': 0.01, 'd1d5': 0.01, 'd1g4': 0.01, 'd1d4': 0.01, 'd1f3': 0.01, 'd1d3': 0.01, 'd1b3': 0.01, 'd1e2': 0.01, 'd1d2': 0.01, 'd1c2': 0.01, 'c1e3': 0.01, 'c1a3': 0.01, 'c1d2': 0.01, 'c1b2': 0.01, 'b1c3': 0.01, 'b1a3': 0.01, 'b1d2': 0.01, 'a1a3': 0.01, 'a1a2': 0.01, 'c4b5': 0.01, 'b4c5': 0.01, 'a4b5': 0.01, 'f4f5': 0.01, 'e4e5': 0.01, 'a4a5': 0.2, 'h3h4': 0.46}</t>
+        </is>
+      </c>
+      <c r="C466" t="b">
+        <v>1</v>
+      </c>
+      <c r="D466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3p3/5p1p/1pp5/PPP1PP1P/6p1/6P1/RNBQKBNR b KQkq - 0 10</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.010416666666666666, 'f8g7': 0.010416666666666666, 'e8f7': 0.010416666666666666, 'd8d7': 0.010416666666666666, 'd8c7': 0.010416666666666666, 'd8d6': 0.010416666666666666, 'd8b6': 0.010416666666666666, 'd8d5': 0.010416666666666666, 'd8a5': 0.010416666666666666, 'd8d4': 0.010416666666666666, 'd8d3': 0.010416666666666666, 'd8d2': 0.010416666666666666, 'd8d1': 0.010416666666666666, 'c8d7': 0.010416666666666666, 'c8b7': 0.010416666666666666, 'c8e6': 0.010416666666666666, 'c8a6': 0.010416666666666666, 'c8f5': 0.010416666666666666, 'c8g4': 0.010416666666666666, 'c8h3': 0.010416666666666666, 'b8d7': 0.010416666666666666, 'b8c6': 0.010416666666666666, 'b8a6': 0.010416666666666666, 'c5b4': 0.010416666666666666, 'b5c4': 0.010416666666666666, 'b5a4': 0.010416666666666666, 'e7e6': 0.010416666666666666, 'a7a6': 0.010416666666666666, 'h6h5': 0.13541666666666666, 'f6f5': 0.5416666666666666, 'e7e5': 0.010416666666666666, 'a7a5': 0.010416666666666666}</t>
+        </is>
+      </c>
+      <c r="C467" t="b">
+        <v>0</v>
+      </c>
+      <c r="D467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3p3/7p/1pp2p2/PPP1PP1P/6p1/6P1/RNBQKBNR w KQkq - 0 11</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>{'h1h3': 0.00980392156862745, 'h1h2': 0.00980392156862745, 'g1h3': 0.00980392156862745, 'g1f3': 0.00980392156862745, 'g1e2': 0.00980392156862745, 'f1d3': 0.00980392156862745, 'f1e2': 0.00980392156862745, 'e1e2': 0.00980392156862745, 'd1d8': 0.00980392156862745, 'd1d7': 0.00980392156862745, 'd1d6': 0.00980392156862745, 'd1h5': 0.00980392156862745, 'd1d5': 0.00980392156862745, 'd1g4': 0.00980392156862745, 'd1d4': 0.00980392156862745, 'd1f3': 0.00980392156862745, 'd1d3': 0.00980392156862745, 'd1b3': 0.00980392156862745, 'd1e2': 0.00980392156862745, 'd1d2': 0.00980392156862745, 'd1c2': 0.00980392156862745, 'c1e3': 0.00980392156862745, 'c1a3': 0.00980392156862745, 'c1d2': 0.00980392156862745, 'c1b2': 0.00980392156862745, 'b1c3': 0.00980392156862745, 'b1a3': 0.00980392156862745, 'b1d2': 0.00980392156862745, 'a1a3': 0.00980392156862745, 'a1a2': 0.00980392156862745, 'e4f5': 0.00980392156862745, 'c4b5': 0.00980392156862745, 'b4c5': 0.00980392156862745, 'a4b5': 0.00980392156862745, 'h4h5': 0.4215686274509804, 'e4e5': 0.00980392156862745, 'a4a5': 0.22549019607843138}</t>
+        </is>
+      </c>
+      <c r="C468" t="b">
+        <v>1</v>
+      </c>
+      <c r="D468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3p3/7p/1pp2p1P/PPP1PP2/6p1/6P1/RNBQKBNR b KQkq - 0 11</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.010752688172043012, 'g8f6': 0.010752688172043012, 'f8g7': 0.010752688172043012, 'e8f7': 0.010752688172043012, 'd8d7': 0.010752688172043012, 'd8c7': 0.010752688172043012, 'd8d6': 0.010752688172043012, 'd8b6': 0.010752688172043012, 'd8d5': 0.010752688172043012, 'd8a5': 0.010752688172043012, 'd8d4': 0.010752688172043012, 'd8d3': 0.010752688172043012, 'd8d2': 0.010752688172043012, 'd8d1': 0.010752688172043012, 'c8d7': 0.010752688172043012, 'c8b7': 0.010752688172043012, 'c8e6': 0.010752688172043012, 'c8a6': 0.010752688172043012, 'b8d7': 0.010752688172043012, 'b8c6': 0.010752688172043012, 'b8a6': 0.010752688172043012, 'f5e4': 0.010752688172043012, 'c5b4': 0.5161290322580645, 'b5c4': 0.010752688172043012, 'b5a4': 0.010752688172043012, 'e7e6': 0.1827956989247312, 'a7a6': 0.010752688172043012, 'e7e5': 0.010752688172043012, 'a7a5': 0.010752688172043012}</t>
+        </is>
+      </c>
+      <c r="C469" t="b">
+        <v>0</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3p3/7p/1p3p1P/PpP1PP2/6p1/6P1/RNBQKBNR w KQkq - 0 12</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>{'h1h4': 0.01020408163265306, 'h1h3': 0.01020408163265306, 'h1h2': 0.01020408163265306, 'g1h3': 0.01020408163265306, 'g1f3': 0.01020408163265306, 'g1e2': 0.01020408163265306, 'f1d3': 0.01020408163265306, 'f1e2': 0.01020408163265306, 'e1e2': 0.01020408163265306, 'd1d8': 0.01020408163265306, 'd1d7': 0.01020408163265306, 'd1d6': 0.01020408163265306, 'd1d5': 0.01020408163265306, 'd1g4': 0.01020408163265306, 'd1d4': 0.01020408163265306, 'd1f3': 0.01020408163265306, 'd1d3': 0.01020408163265306, 'd1b3': 0.01020408163265306, 'd1e2': 0.01020408163265306, 'd1d2': 0.01020408163265306, 'd1c2': 0.01020408163265306, 'c1e3': 0.01020408163265306, 'c1a3': 0.01020408163265306, 'c1d2': 0.01020408163265306, 'c1b2': 0.01020408163265306, 'b1c3': 0.01020408163265306, 'b1a3': 0.01020408163265306, 'b1d2': 0.01020408163265306, 'a1a3': 0.01020408163265306, 'a1a2': 0.01020408163265306, 'e4f5': 0.01020408163265306, 'c4b5': 0.01020408163265306, 'a4b5': 0.01020408163265306, 'e4e5': 0.01020408163265306, 'c4c5': 0.40816326530612246, 'a4a5': 0.23469387755102042}</t>
+        </is>
+      </c>
+      <c r="C470" t="b">
+        <v>1</v>
+      </c>
+      <c r="D470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3p3/7p/1pP2p1P/Pp2PP2/6p1/6P1/RNBQKBNR b KQkq - 0 12</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.011111111111111112, 'g8f6': 0.011111111111111112, 'f8g7': 0.011111111111111112, 'e8f7': 0.011111111111111112, 'd8d7': 0.011111111111111112, 'd8c7': 0.011111111111111112, 'd8d6': 0.011111111111111112, 'd8b6': 0.011111111111111112, 'd8d5': 0.011111111111111112, 'd8a5': 0.011111111111111112, 'd8d4': 0.011111111111111112, 'd8d3': 0.011111111111111112, 'd8d2': 0.011111111111111112, 'd8d1': 0.011111111111111112, 'c8d7': 0.011111111111111112, 'c8b7': 0.011111111111111112, 'c8e6': 0.011111111111111112, 'c8a6': 0.011111111111111112, 'b8d7': 0.011111111111111112, 'b8c6': 0.011111111111111112, 'b8a6': 0.011111111111111112, 'f5e4': 0.011111111111111112, 'b5a4': 0.011111111111111112, 'e7e6': 0.011111111111111112, 'a7a6': 0.011111111111111112, 'b4b3': 0.5444444444444444, 'e7e5': 0.15555555555555556, 'a7a5': 0.011111111111111112}</t>
+        </is>
+      </c>
+      <c r="C471" t="b">
+        <v>0</v>
+      </c>
+      <c r="D471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3p3/7p/1pP2p1P/P3PP2/1p4p1/6P1/RNBQKBNR w KQkq - 0 13</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>{'h1h4': 0.010101010101010102, 'h1h3': 0.010101010101010102, 'h1h2': 0.010101010101010102, 'g1h3': 0.010101010101010102, 'g1f3': 0.010101010101010102, 'g1e2': 0.010101010101010102, 'f1b5': 0.010101010101010102, 'f1c4': 0.010101010101010102, 'f1d3': 0.010101010101010102, 'f1e2': 0.010101010101010102, 'e1e2': 0.010101010101010102, 'd1d8': 0.010101010101010102, 'd1d7': 0.010101010101010102, 'd1d6': 0.010101010101010102, 'd1d5': 0.010101010101010102, 'd1g4': 0.010101010101010102, 'd1d4': 0.010101010101010102, 'd1f3': 0.010101010101010102, 'd1d3': 0.010101010101010102, 'd1b3': 0.010101010101010102, 'd1e2': 0.010101010101010102, 'd1d2': 0.010101010101010102, 'd1c2': 0.010101010101010102, 'c1e3': 0.010101010101010102, 'c1a3': 0.010101010101010102, 'c1d2': 0.010101010101010102, 'c1b2': 0.010101010101010102, 'b1c3': 0.010101010101010102, 'b1a3': 0.010101010101010102, 'b1d2': 0.010101010101010102, 'a1a3': 0.010101010101010102, 'a1a2': 0.24242424242424243, 'e4f5': 0.010101010101010102, 'a4b5': 0.010101010101010102, 'c5c6': 0.010101010101010102, 'e4e5': 0.010101010101010102, 'a4a5': 0.3939393939393939}</t>
+        </is>
+      </c>
+      <c r="C472" t="b">
+        <v>1</v>
+      </c>
+      <c r="D472" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3p3/7p/PpP2p1P/4PP2/1p4p1/6P1/RNBQKBNR b KQkq - 0 13</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.011235955056179775, 'g8f6': 0.011235955056179775, 'f8g7': 0.011235955056179775, 'e8f7': 0.011235955056179775, 'd8d7': 0.011235955056179775, 'd8c7': 0.011235955056179775, 'd8d6': 0.011235955056179775, 'd8b6': 0.011235955056179775, 'd8d5': 0.011235955056179775, 'd8a5': 0.011235955056179775, 'd8d4': 0.011235955056179775, 'd8d3': 0.011235955056179775, 'd8d2': 0.011235955056179775, 'd8d1': 0.011235955056179775, 'c8d7': 0.011235955056179775, 'c8b7': 0.011235955056179775, 'c8e6': 0.011235955056179775, 'c8a6': 0.011235955056179775, 'b8d7': 0.011235955056179775, 'b8c6': 0.011235955056179775, 'b8a6': 0.011235955056179775, 'f5e4': 0.011235955056179775, 'e7e6': 0.011235955056179775, 'a7a6': 0.011235955056179775, 'b5b4': 0.20224719101123595, 'b3b2': 0.5056179775280899, 'e7e5': 0.011235955056179775}</t>
+        </is>
+      </c>
+      <c r="C473" t="b">
+        <v>0</v>
+      </c>
+      <c r="D473" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3p3/7p/PpP2p1P/4PP2/6p1/1p4P1/RNBQKBNR w KQkq - 0 14</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>{'h1h4': 0.010526315789473684, 'h1h3': 0.010526315789473684, 'h1h2': 0.010526315789473684, 'g1h3': 0.010526315789473684, 'g1f3': 0.010526315789473684, 'g1e2': 0.010526315789473684, 'f1b5': 0.010526315789473684, 'f1c4': 0.010526315789473684, 'f1d3': 0.010526315789473684, 'f1e2': 0.010526315789473684, 'e1e2': 0.010526315789473684, 'd1d8': 0.010526315789473684, 'd1d7': 0.010526315789473684, 'd1d6': 0.010526315789473684, 'd1d5': 0.010526315789473684, 'd1g4': 0.010526315789473684, 'd1d4': 0.010526315789473684, 'd1a4': 0.010526315789473684, 'd1f3': 0.010526315789473684, 'd1d3': 0.010526315789473684, 'd1b3': 0.010526315789473684, 'd1e2': 0.010526315789473684, 'd1d2': 0.010526315789473684, 'd1c2': 0.010526315789473684, 'c1e3': 0.010526315789473684, 'c1d2': 0.010526315789473684, 'c1b2': 0.010526315789473684, 'b1c3': 0.010526315789473684, 'b1a3': 0.010526315789473684, 'b1d2': 0.010526315789473684, 'a1a4': 0.010526315789473684, 'a1a3': 0.010526315789473684, 'a1a2': 0.12631578947368421, 'e4f5': 0.010526315789473684, 'c5c6': 0.010526315789473684, 'a5a6': 0.49473684210526314, 'e4e5': 0.010526315789473684}</t>
+        </is>
+      </c>
+      <c r="C474" t="b">
+        <v>1</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3p3/P6p/1pP2p1P/4PP2/6p1/1p4P1/RNBQKBNR b KQkq - 0 14</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.010309278350515464, 'g8f6': 0.010309278350515464, 'f8g7': 0.010309278350515464, 'e8f7': 0.010309278350515464, 'd8d7': 0.010309278350515464, 'd8c7': 0.010309278350515464, 'd8d6': 0.010309278350515464, 'd8b6': 0.010309278350515464, 'd8d5': 0.010309278350515464, 'd8a5': 0.010309278350515464, 'd8d4': 0.010309278350515464, 'd8d3': 0.010309278350515464, 'd8d2': 0.010309278350515464, 'd8d1': 0.010309278350515464, 'c8d7': 0.010309278350515464, 'c8b7': 0.010309278350515464, 'c8e6': 0.010309278350515464, 'c8a6': 0.010309278350515464, 'b8d7': 0.010309278350515464, 'b8c6': 0.010309278350515464, 'b8a6': 0.010309278350515464, 'f5e4': 0.010309278350515464, 'b2c1q': 0.010309278350515464, 'b2c1r': 0.010309278350515464, 'b2c1b': 0.010309278350515464, 'b2c1n': 0.010309278350515464, 'b2a1q': 0.4742268041237113, 'b2a1r': 0.010309278350515464, 'b2a1b': 0.010309278350515464, 'b2a1n': 0.010309278350515464, 'e7e6': 0.010309278350515464, 'b5b4': 0.1958762886597938, 'e7e5': 0.010309278350515464}</t>
+        </is>
+      </c>
+      <c r="C475" t="b">
+        <v>0</v>
+      </c>
+      <c r="D475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3p3/P6p/1pP2p1P/4PP2/6p1/6P1/qNBQKBNR w Kkq - 0 15</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>{'h1h4': 0.010416666666666666, 'h1h3': 0.010416666666666666, 'h1h2': 0.010416666666666666, 'g1h3': 0.010416666666666666, 'g1f3': 0.010416666666666666, 'g1e2': 0.010416666666666666, 'f1b5': 0.010416666666666666, 'f1c4': 0.010416666666666666, 'f1d3': 0.010416666666666666, 'f1e2': 0.010416666666666666, 'e1e2': 0.010416666666666666, 'd1d8': 0.010416666666666666, 'd1d7': 0.010416666666666666, 'd1d6': 0.010416666666666666, 'd1d5': 0.010416666666666666, 'd1g4': 0.010416666666666666, 'd1d4': 0.010416666666666666, 'd1a4': 0.010416666666666666, 'd1f3': 0.010416666666666666, 'd1d3': 0.010416666666666666, 'd1b3': 0.010416666666666666, 'd1e2': 0.010416666666666666, 'd1d2': 0.010416666666666666, 'd1c2': 0.010416666666666666, 'c1e3': 0.010416666666666666, 'c1a3': 0.15625, 'c1d2': 0.010416666666666666, 'c1b2': 0.010416666666666666, 'b1c3': 0.5, 'b1a3': 0.010416666666666666, 'b1d2': 0.010416666666666666, 'e4f5': 0.010416666666666666, 'c5c6': 0.010416666666666666, 'e4e5': 0.010416666666666666}</t>
+        </is>
+      </c>
+      <c r="C476" t="b">
+        <v>1</v>
+      </c>
+      <c r="D476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3p3/P6p/1pP2p1P/4PP2/2N3p1/6P1/q1BQKBNR b Kkq - 1 15</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.01020408163265306, 'g8f6': 0.01020408163265306, 'f8g7': 0.01020408163265306, 'e8f7': 0.01020408163265306, 'd8d7': 0.01020408163265306, 'd8c7': 0.01020408163265306, 'd8d6': 0.01020408163265306, 'd8b6': 0.01020408163265306, 'd8d5': 0.01020408163265306, 'd8a5': 0.01020408163265306, 'd8d4': 0.01020408163265306, 'd8d3': 0.01020408163265306, 'd8d2': 0.01020408163265306, 'd8d1': 0.01020408163265306, 'c8d7': 0.01020408163265306, 'c8b7': 0.01020408163265306, 'c8e6': 0.01020408163265306, 'c8a6': 0.01020408163265306, 'b8d7': 0.01020408163265306, 'b8c6': 0.01020408163265306, 'b8a6': 0.01020408163265306, 'a1a6': 0.01020408163265306, 'a1a5': 0.01020408163265306, 'a1a4': 0.01020408163265306, 'a1c3': 0.01020408163265306, 'a1a3': 0.01020408163265306, 'a1b2': 0.01020408163265306, 'a1a2': 0.01020408163265306, 'a1c1': 0.01020408163265306, 'a1b1': 0.14285714285714285, 'f5e4': 0.01020408163265306, 'e7e6': 0.01020408163265306, 'b5b4': 0.5204081632653061, 'e7e5': 0.01020408163265306}</t>
+        </is>
+      </c>
+      <c r="C477" t="b">
+        <v>0</v>
+      </c>
+      <c r="D477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3p3/P6p/2P2p1P/1p2PP2/2N3p1/6P1/q1BQKBNR w Kkq - 0 16</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>{'c3d5': 0.009900990099009901, 'c3b5': 0.009900990099009901, 'c3a4': 0.009900990099009901, 'c3e2': 0.009900990099009901, 'c3a2': 0.009900990099009901, 'c3b1': 0.009900990099009901, 'h1h4': 0.009900990099009901, 'h1h3': 0.009900990099009901, 'h1h2': 0.009900990099009901, 'g1h3': 0.009900990099009901, 'g1f3': 0.009900990099009901, 'g1e2': 0.009900990099009901, 'f1b5': 0.009900990099009901, 'f1c4': 0.009900990099009901, 'f1d3': 0.009900990099009901, 'f1e2': 0.009900990099009901, 'e1e2': 0.009900990099009901, 'd1d8': 0.009900990099009901, 'd1d7': 0.009900990099009901, 'd1d6': 0.009900990099009901, 'd1d5': 0.009900990099009901, 'd1g4': 0.009900990099009901, 'd1d4': 0.009900990099009901, 'd1a4': 0.009900990099009901, 'd1f3': 0.009900990099009901, 'd1d3': 0.009900990099009901, 'd1b3': 0.009900990099009901, 'd1e2': 0.009900990099009901, 'd1d2': 0.009900990099009901, 'd1c2': 0.009900990099009901, 'c1e3': 0.009900990099009901, 'c1a3': 0.504950495049505, 'c1d2': 0.009900990099009901, 'c1b2': 0.13861386138613863, 'e4f5': 0.009900990099009901, 'c5c6': 0.009900990099009901, 'e4e5': 0.009900990099009901}</t>
+        </is>
+      </c>
+      <c r="C478" t="b">
+        <v>1</v>
+      </c>
+      <c r="D478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3p3/P6p/2P2p1P/1p2PP2/B1N3p1/6P1/q2QKBNR b Kkq - 1 16</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.009900990099009901, 'g8f6': 0.009900990099009901, 'f8g7': 0.009900990099009901, 'e8f7': 0.009900990099009901, 'd8d7': 0.009900990099009901, 'd8c7': 0.009900990099009901, 'd8d6': 0.009900990099009901, 'd8b6': 0.009900990099009901, 'd8d5': 0.009900990099009901, 'd8a5': 0.009900990099009901, 'd8d4': 0.009900990099009901, 'd8d3': 0.009900990099009901, 'd8d2': 0.009900990099009901, 'd8d1': 0.009900990099009901, 'c8d7': 0.009900990099009901, 'c8b7': 0.009900990099009901, 'c8e6': 0.009900990099009901, 'c8a6': 0.009900990099009901, 'b8d7': 0.009900990099009901, 'b8c6': 0.009900990099009901, 'b8a6': 0.009900990099009901, 'a1c3': 0.009900990099009901, 'a1a3': 0.009900990099009901, 'a1b2': 0.009900990099009901, 'a1a2': 0.009900990099009901, 'a1d1': 0.009900990099009901, 'a1c1': 0.009900990099009901, 'a1b1': 0.009900990099009901, 'f5e4': 0.009900990099009901, 'b4c3': 0.009900990099009901, 'b4a3': 0.31683168316831684, 'e7e6': 0.009900990099009901, 'b4b3': 0.3564356435643564, 'e7e5': 0.009900990099009901}</t>
+        </is>
+      </c>
+      <c r="C479" t="b">
+        <v>0</v>
+      </c>
+      <c r="D479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3p3/P6p/2P2p1P/4PP2/BpN3p1/6P1/q2QKBNR w Kkq - 0 17</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>{'c3d5': 0.011627906976744186, 'c3b5': 0.011627906976744186, 'c3a4': 0.011627906976744186, 'c3e2': 0.011627906976744186, 'c3a2': 0.011627906976744186, 'c3b1': 0.011627906976744186, 'a3b4': 0.011627906976744186, 'a3b2': 0.011627906976744186, 'a3c1': 0.011627906976744186, 'h1h4': 0.011627906976744186, 'h1h3': 0.011627906976744186, 'h1h2': 0.011627906976744186, 'g1h3': 0.011627906976744186, 'g1f3': 0.011627906976744186, 'g1e2': 0.011627906976744186, 'f1b5': 0.011627906976744186, 'f1c4': 0.011627906976744186, 'f1d3': 0.011627906976744186, 'f1e2': 0.011627906976744186, 'e1e2': 0.011627906976744186, 'd1c1': 0.46511627906976744, 'd1b1': 0.011627906976744186, 'd1a1': 0.2441860465116279, 'e4f5': 0.011627906976744186, 'c5c6': 0.011627906976744186, 'e4e5': 0.011627906976744186}</t>
+        </is>
+      </c>
+      <c r="C480" t="b">
+        <v>1</v>
+      </c>
+      <c r="D480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3p3/P6p/2P2p1P/4PP2/BpN3p1/6P1/q1Q1KBNR b Kkq - 1 17</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.011111111111111112, 'g8f6': 0.011111111111111112, 'f8g7': 0.011111111111111112, 'e8f7': 0.011111111111111112, 'e8d7': 0.011111111111111112, 'd8d7': 0.011111111111111112, 'd8c7': 0.011111111111111112, 'd8d6': 0.011111111111111112, 'd8b6': 0.011111111111111112, 'd8d5': 0.011111111111111112, 'd8a5': 0.011111111111111112, 'd8d4': 0.011111111111111112, 'd8d3': 0.011111111111111112, 'd8d2': 0.011111111111111112, 'd8d1': 0.011111111111111112, 'c8d7': 0.011111111111111112, 'c8b7': 0.011111111111111112, 'c8e6': 0.011111111111111112, 'c8a6': 0.011111111111111112, 'b8d7': 0.011111111111111112, 'b8c6': 0.011111111111111112, 'b8a6': 0.011111111111111112, 'a1c3': 0.011111111111111112, 'a1a3': 0.011111111111111112, 'a1b2': 0.011111111111111112, 'a1a2': 0.011111111111111112, 'a1c1': 0.011111111111111112, 'a1b1': 0.011111111111111112, 'f5e4': 0.011111111111111112, 'e7e6': 0.25555555555555554, 'b3b2': 0.4, 'e7e5': 0.011111111111111112}</t>
+        </is>
+      </c>
+      <c r="C481" t="b">
+        <v>0</v>
+      </c>
+      <c r="D481" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3p3/P6p/2P2p1P/4PP2/B1N3p1/1p4P1/q1Q1KBNR w Kkq - 0 18</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>{'c3d5': 0.011627906976744186, 'c3b5': 0.011627906976744186, 'c3a4': 0.011627906976744186, 'c3e2': 0.011627906976744186, 'c3a2': 0.011627906976744186, 'c3d1': 0.011627906976744186, 'c3b1': 0.011627906976744186, 'a3b4': 0.011627906976744186, 'a3b2': 0.011627906976744186, 'h1h4': 0.011627906976744186, 'h1h3': 0.011627906976744186, 'h1h2': 0.011627906976744186, 'g1h3': 0.011627906976744186, 'g1f3': 0.011627906976744186, 'g1e2': 0.011627906976744186, 'f1b5': 0.011627906976744186, 'f1c4': 0.011627906976744186, 'f1d3': 0.011627906976744186, 'f1e2': 0.011627906976744186, 'e1e2': 0.011627906976744186, 'c1d1': 0.011627906976744186, 'c1b1': 0.43023255813953487, 'c1a1': 0.27906976744186046, 'e4f5': 0.011627906976744186, 'c5c6': 0.011627906976744186, 'e4e5': 0.011627906976744186}</t>
+        </is>
+      </c>
+      <c r="C482" t="b">
+        <v>1</v>
+      </c>
+      <c r="D482" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p3p3/P6p/2P2p1P/4PP2/B1N3p1/1p4P1/qQ2KBNR b Kkq - 1 18</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.011494252873563218, 'g8f6': 0.011494252873563218, 'f8g7': 0.011494252873563218, 'e8f7': 0.011494252873563218, 'e8d7': 0.011494252873563218, 'd8d7': 0.011494252873563218, 'd8c7': 0.011494252873563218, 'd8d6': 0.011494252873563218, 'd8b6': 0.011494252873563218, 'd8d5': 0.011494252873563218, 'd8a5': 0.011494252873563218, 'd8d4': 0.011494252873563218, 'd8d3': 0.011494252873563218, 'd8d2': 0.011494252873563218, 'd8d1': 0.011494252873563218, 'c8d7': 0.011494252873563218, 'c8b7': 0.011494252873563218, 'c8e6': 0.011494252873563218, 'c8a6': 0.011494252873563218, 'b8d7': 0.011494252873563218, 'b8c6': 0.011494252873563218, 'b8a6': 0.011494252873563218, 'a1a3': 0.011494252873563218, 'a1a2': 0.25287356321839083, 'a1b1': 0.06896551724137931, 'f5e4': 0.011494252873563218, 'e7e6': 0.3793103448275862, 'e7e5': 0.011494252873563218}</t>
+        </is>
+      </c>
+      <c r="C483" t="b">
+        <v>0</v>
+      </c>
+      <c r="D483" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p7/P3p2p/2P2p1P/4PP2/B1N3p1/1p4P1/qQ2KBNR w Kkq - 0 19</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>{'c3d5': 0.012048192771084338, 'c3b5': 0.012048192771084338, 'c3a4': 0.012048192771084338, 'c3e2': 0.012048192771084338, 'c3a2': 0.012048192771084338, 'c3d1': 0.012048192771084338, 'a3b4': 0.012048192771084338, 'a3b2': 0.012048192771084338, 'h1h4': 0.012048192771084338, 'h1h3': 0.012048192771084338, 'h1h2': 0.012048192771084338, 'g1h3': 0.012048192771084338, 'g1f3': 0.012048192771084338, 'g1e2': 0.012048192771084338, 'f1b5': 0.012048192771084338, 'f1c4': 0.012048192771084338, 'f1d3': 0.012048192771084338, 'f1e2': 0.012048192771084338, 'e1e2': 0.012048192771084338, 'b1d1': 0.012048192771084338, 'b1c1': 0.012048192771084338, 'b1a1': 0.6506024096385542, 'e4f5': 0.012048192771084338, 'c5c6': 0.012048192771084338, 'e4e5': 0.060240963855421686}</t>
+        </is>
+      </c>
+      <c r="C484" t="b">
+        <v>1</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p7/P3p2p/2P2p1P/4PP2/B1N3p1/1p4P1/Q3KBNR b Kkq - 0 19</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.009615384615384616, 'g8e7': 0.009615384615384616, 'g8f6': 0.009615384615384616, 'f8g7': 0.009615384615384616, 'f8e7': 0.009615384615384616, 'f8d6': 0.009615384615384616, 'f8c5': 0.009615384615384616, 'e8f7': 0.009615384615384616, 'e8e7': 0.009615384615384616, 'e8d7': 0.009615384615384616, 'd8e7': 0.009615384615384616, 'd8d7': 0.009615384615384616, 'd8c7': 0.009615384615384616, 'd8f6': 0.009615384615384616, 'd8d6': 0.009615384615384616, 'd8b6': 0.009615384615384616, 'd8g5': 0.009615384615384616, 'd8d5': 0.009615384615384616, 'd8a5': 0.009615384615384616, 'd8h4': 0.009615384615384616, 'd8d4': 0.009615384615384616, 'd8d3': 0.009615384615384616, 'd8d2': 0.009615384615384616, 'd8d1': 0.009615384615384616, 'c8d7': 0.009615384615384616, 'c8b7': 0.009615384615384616, 'c8a6': 0.009615384615384616, 'b8d7': 0.009615384615384616, 'b8c6': 0.009615384615384616, 'b8a6': 0.009615384615384616, 'f5e4': 0.009615384615384616, 'b2a1q': 0.08653846153846154, 'b2a1r': 0.08653846153846154, 'b2a1b': 0.009615384615384616, 'b2a1n': 0.28846153846153844, 'e6e5': 0.009615384615384616, 'b2b1q': 0.09615384615384616, 'b2b1r': 0.09615384615384616, 'b2b1b': 0.009615384615384616, 'b2b1n': 0.009615384615384616}</t>
+        </is>
+      </c>
+      <c r="C485" t="b">
+        <v>0</v>
+      </c>
+      <c r="D485" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p7/P3p2p/2P2p1P/4PP2/B1N3p1/6P1/n3KBNR w Kkq - 0 20</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>{'c3d5': 0.0125, 'c3b5': 0.0125, 'c3a4': 0.0125, 'c3e2': 0.0125, 'c3a2': 0.0125, 'c3d1': 0.0125, 'c3b1': 0.0125, 'a3b4': 0.0125, 'a3b2': 0.0125, 'a3c1': 0.0125, 'h1h4': 0.0125, 'h1h3': 0.0125, 'h1h2': 0.0125, 'g1h3': 0.0125, 'g1f3': 0.0125, 'g1e2': 0.0125, 'f1b5': 0.0125, 'f1c4': 0.0125, 'f1d3': 0.0125, 'f1e2': 0.0125, 'e1e2': 0.0125, 'e4f5': 0.0125, 'c5c6': 0.2, 'e4e5': 0.5125}</t>
+        </is>
+      </c>
+      <c r="C486" t="b">
+        <v>1</v>
+      </c>
+      <c r="D486" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p7/P3p2p/2P1Pp1P/5P2/B1N3p1/6P1/n3KBNR b Kkq - 0 20</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.01098901098901099, 'g8e7': 0.01098901098901099, 'g8f6': 0.01098901098901099, 'f8g7': 0.01098901098901099, 'f8e7': 0.01098901098901099, 'f8d6': 0.01098901098901099, 'f8c5': 0.01098901098901099, 'e8f7': 0.01098901098901099, 'e8e7': 0.01098901098901099, 'e8d7': 0.01098901098901099, 'd8e7': 0.01098901098901099, 'd8d7': 0.01098901098901099, 'd8c7': 0.01098901098901099, 'd8f6': 0.01098901098901099, 'd8d6': 0.01098901098901099, 'd8b6': 0.01098901098901099, 'd8g5': 0.01098901098901099, 'd8d5': 0.01098901098901099, 'd8a5': 0.01098901098901099, 'd8h4': 0.01098901098901099, 'd8d4': 0.01098901098901099, 'd8d3': 0.01098901098901099, 'd8d2': 0.01098901098901099, 'd8d1': 0.01098901098901099, 'c8d7': 0.01098901098901099, 'c8b7': 0.01098901098901099, 'c8a6': 0.2857142857142857, 'b8d7': 0.01098901098901099, 'b8c6': 0.01098901098901099, 'b8a6': 0.01098901098901099, 'a1b3': 0.3516483516483517, 'a1c2': 0.03296703296703297}</t>
+        </is>
+      </c>
+      <c r="C487" t="b">
+        <v>0</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p7/P3p2p/2P1Pp1P/5P2/BnN3p1/6P1/4KBNR w Kkq - 1 21</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>{'c3d5': 0.012195121951219513, 'c3b5': 0.012195121951219513, 'c3e4': 0.012195121951219513, 'c3a4': 0.012195121951219513, 'c3e2': 0.012195121951219513, 'c3a2': 0.012195121951219513, 'c3d1': 0.012195121951219513, 'c3b1': 0.012195121951219513, 'a3b4': 0.012195121951219513, 'a3b2': 0.012195121951219513, 'a3c1': 0.012195121951219513, 'h1h4': 0.012195121951219513, 'h1h3': 0.012195121951219513, 'h1h2': 0.012195121951219513, 'g1h3': 0.012195121951219513, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'f1b5': 0.012195121951219513, 'f1c4': 0.524390243902439, 'f1d3': 0.012195121951219513, 'f1e2': 0.012195121951219513, 'e1e2': 0.012195121951219513, 'c5c6': 0.2073170731707317}</t>
+        </is>
+      </c>
+      <c r="C488" t="b">
+        <v>1</v>
+      </c>
+      <c r="D488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p7/P3p2p/2P1Pp1P/2B2P2/BnN3p1/6P1/4K1NR b Kkq - 2 21</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.010752688172043012, 'g8e7': 0.010752688172043012, 'g8f6': 0.010752688172043012, 'f8g7': 0.010752688172043012, 'f8e7': 0.010752688172043012, 'f8d6': 0.010752688172043012, 'f8c5': 0.010752688172043012, 'e8f7': 0.010752688172043012, 'e8e7': 0.010752688172043012, 'e8d7': 0.010752688172043012, 'd8e7': 0.010752688172043012, 'd8d7': 0.010752688172043012, 'd8c7': 0.010752688172043012, 'd8f6': 0.010752688172043012, 'd8d6': 0.010752688172043012, 'd8b6': 0.010752688172043012, 'd8g5': 0.010752688172043012, 'd8d5': 0.010752688172043012, 'd8a5': 0.010752688172043012, 'd8h4': 0.010752688172043012, 'd8d4': 0.010752688172043012, 'd8d3': 0.010752688172043012, 'd8d2': 0.010752688172043012, 'd8d1': 0.010752688172043012, 'c8d7': 0.010752688172043012, 'c8b7': 0.010752688172043012, 'c8a6': 0.010752688172043012, 'b8d7': 0.010752688172043012, 'b8c6': 0.010752688172043012, 'b8a6': 0.010752688172043012, 'b3c5': 0.1827956989247312, 'b3a5': 0.010752688172043012, 'b3d4': 0.010752688172043012, 'b3d2': 0.44086021505376344, 'b3c1': 0.010752688172043012, 'b3a1': 0.010752688172043012}</t>
+        </is>
+      </c>
+      <c r="C489" t="b">
+        <v>0</v>
+      </c>
+      <c r="D489" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p7/P3p2p/2P1Pp1P/2B2P2/B1N3p1/3n2P1/4K1NR w Kkq - 3 22</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.01098901098901099, 'c4d5': 0.01098901098901099, 'c4b5': 0.01098901098901099, 'c4d3': 0.01098901098901099, 'c4b3': 0.01098901098901099, 'c4e2': 0.01098901098901099, 'c4a2': 0.01098901098901099, 'c4f1': 0.01098901098901099, 'c3d5': 0.01098901098901099, 'c3b5': 0.01098901098901099, 'c3e4': 0.01098901098901099, 'c3a4': 0.01098901098901099, 'c3e2': 0.01098901098901099, 'c3a2': 0.01098901098901099, 'c3d1': 0.01098901098901099, 'c3b1': 0.01098901098901099, 'a3b4': 0.01098901098901099, 'a3b2': 0.01098901098901099, 'a3c1': 0.01098901098901099, 'h1h4': 0.01098901098901099, 'h1h3': 0.23076923076923078, 'h1h2': 0.4725274725274725, 'g1h3': 0.01098901098901099, 'g1f3': 0.01098901098901099, 'g1e2': 0.01098901098901099, 'e1e2': 0.01098901098901099, 'e1d1': 0.01098901098901099, 'c5c6': 0.01098901098901099}</t>
+        </is>
+      </c>
+      <c r="C490" t="b">
+        <v>1</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p7/P3p2p/2P1Pp1P/2B2P2/B1N3p1/3n2PR/4K1N1 b kq - 4 22</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.010752688172043012, 'g8e7': 0.010752688172043012, 'g8f6': 0.010752688172043012, 'f8g7': 0.010752688172043012, 'f8e7': 0.010752688172043012, 'f8d6': 0.010752688172043012, 'f8c5': 0.010752688172043012, 'e8f7': 0.010752688172043012, 'e8e7': 0.010752688172043012, 'e8d7': 0.010752688172043012, 'd8e7': 0.010752688172043012, 'd8d7': 0.010752688172043012, 'd8c7': 0.010752688172043012, 'd8f6': 0.010752688172043012, 'd8d6': 0.010752688172043012, 'd8b6': 0.010752688172043012, 'd8g5': 0.010752688172043012, 'd8d5': 0.010752688172043012, 'd8a5': 0.010752688172043012, 'd8h4': 0.010752688172043012, 'd8d4': 0.010752688172043012, 'd8d3': 0.010752688172043012, 'c8d7': 0.010752688172043012, 'c8b7': 0.010752688172043012, 'c8a6': 0.010752688172043012, 'b8d7': 0.010752688172043012, 'b8c6': 0.010752688172043012, 'b8a6': 0.010752688172043012, 'd2e4': 0.010752688172043012, 'd2c4': 0.010752688172043012, 'd2f3': 0.08602150537634409, 'd2b3': 0.010752688172043012, 'd2f1': 0.15053763440860216, 'd2b1': 0.40860215053763443, 'g3h2': 0.010752688172043012}</t>
+        </is>
+      </c>
+      <c r="C491" t="b">
+        <v>0</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p7/P3p2p/2P1Pp1P/2B2P2/B1N3p1/6PR/1n2K1N1 w kq - 5 23</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.011363636363636364, 'c4d5': 0.011363636363636364, 'c4b5': 0.011363636363636364, 'c4d3': 0.011363636363636364, 'c4b3': 0.011363636363636364, 'c4e2': 0.011363636363636364, 'c4a2': 0.011363636363636364, 'c4f1': 0.011363636363636364, 'c3d5': 0.011363636363636364, 'c3b5': 0.011363636363636364, 'c3e4': 0.011363636363636364, 'c3a4': 0.011363636363636364, 'c3e2': 0.011363636363636364, 'c3a2': 0.011363636363636364, 'c3d1': 0.011363636363636364, 'c3b1': 0.011363636363636364, 'a3b4': 0.011363636363636364, 'a3b2': 0.011363636363636364, 'a3c1': 0.011363636363636364, 'h2h4': 0.011363636363636364, 'h2h3': 0.20454545454545456, 'h2h1': 0.011363636363636364, 'g1h3': 0.011363636363636364, 'g1f3': 0.011363636363636364, 'g1e2': 0.011363636363636364, 'e1e2': 0.011363636363636364, 'e1f1': 0.48863636363636365, 'c5c6': 0.011363636363636364}</t>
+        </is>
+      </c>
+      <c r="C492" t="b">
+        <v>1</v>
+      </c>
+      <c r="D492" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/p7/P3p2p/2P1Pp1P/2B2P2/B1N3p1/6PR/1n3KN1 b kq - 6 23</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.010752688172043012, 'g8e7': 0.010752688172043012, 'g8f6': 0.010752688172043012, 'f8g7': 0.010752688172043012, 'f8e7': 0.010752688172043012, 'f8d6': 0.010752688172043012, 'f8c5': 0.010752688172043012, 'e8f7': 0.010752688172043012, 'e8e7': 0.010752688172043012, 'e8d7': 0.010752688172043012, 'd8e7': 0.010752688172043012, 'd8d7': 0.010752688172043012, 'd8c7': 0.010752688172043012, 'd8f6': 0.010752688172043012, 'd8d6': 0.010752688172043012, 'd8b6': 0.010752688172043012, 'd8g5': 0.010752688172043012, 'd8d5': 0.010752688172043012, 'd8a5': 0.010752688172043012, 'd8h4': 0.010752688172043012, 'd8d4': 0.010752688172043012, 'd8d3': 0.010752688172043012, 'd8d2': 0.010752688172043012, 'd8d1': 0.010752688172043012, 'c8d7': 0.010752688172043012, 'c8b7': 0.010752688172043012, 'c8a6': 0.3548387096774194, 'b8d7': 0.010752688172043012, 'b8c6': 0.010752688172043012, 'b8a6': 0.010752688172043012, 'b1c3': 0.2903225806451613, 'b1a3': 0.010752688172043012, 'b1d2': 0.010752688172043012, 'g3h2': 0.010752688172043012}</t>
+        </is>
+      </c>
+      <c r="C493" t="b">
+        <v>0</v>
+      </c>
+      <c r="D493" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B1N3p1/6PR/1n3KN1 w kq - 0 24</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.012048192771084338, 'c4b5': 0.012048192771084338, 'c4d3': 0.012048192771084338, 'c4e2': 0.012048192771084338, 'c3d5': 0.012048192771084338, 'c3b5': 0.012048192771084338, 'c3e4': 0.012048192771084338, 'c3a4': 0.012048192771084338, 'c3e2': 0.012048192771084338, 'c3a2': 0.012048192771084338, 'c3d1': 0.012048192771084338, 'c3b1': 0.012048192771084338, 'a3b4': 0.012048192771084338, 'a3b2': 0.012048192771084338, 'a3c1': 0.012048192771084338, 'h2h4': 0.012048192771084338, 'h2h3': 0.21686746987951808, 'h2h1': 0.012048192771084338, 'g1h3': 0.012048192771084338, 'g1f3': 0.012048192771084338, 'g1e2': 0.012048192771084338, 'f1e2': 0.012048192771084338, 'f1e1': 0.5060240963855421, 'c5c6': 0.012048192771084338}</t>
+        </is>
+      </c>
+      <c r="C494" t="b">
+        <v>1</v>
+      </c>
+      <c r="D494" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B1N3p1/6PR/1n2K1N1 b kq - 1 24</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.010869565217391304, 'g8e7': 0.010869565217391304, 'g8f6': 0.010869565217391304, 'f8g7': 0.010869565217391304, 'f8e7': 0.010869565217391304, 'f8d6': 0.010869565217391304, 'f8c5': 0.010869565217391304, 'e8f7': 0.010869565217391304, 'e8e7': 0.010869565217391304, 'e8d7': 0.010869565217391304, 'd8c8': 0.010869565217391304, 'd8e7': 0.010869565217391304, 'd8d7': 0.010869565217391304, 'd8c7': 0.010869565217391304, 'd8f6': 0.010869565217391304, 'd8d6': 0.010869565217391304, 'd8b6': 0.010869565217391304, 'd8g5': 0.010869565217391304, 'd8d5': 0.010869565217391304, 'd8a5': 0.010869565217391304, 'd8h4': 0.010869565217391304, 'd8d4': 0.010869565217391304, 'd8d3': 0.010869565217391304, 'd8d2': 0.010869565217391304, 'd8d1': 0.010869565217391304, 'b8d7': 0.010869565217391304, 'b8c6': 0.010869565217391304, 'a6c8': 0.010869565217391304, 'a6b7': 0.010869565217391304, 'a6b5': 0.043478260869565216, 'a6c4': 0.2826086956521739, 'b1c3': 0.31521739130434784, 'b1a3': 0.010869565217391304, 'b1d2': 0.010869565217391304, 'g3h2': 0.010869565217391304}</t>
+        </is>
+      </c>
+      <c r="C495" t="b">
+        <v>0</v>
+      </c>
+      <c r="D495" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B1n3p1/6PR/4K1N1 w kq - 0 25</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.012658227848101266, 'c4a6': 0.012658227848101266, 'c4d5': 0.012658227848101266, 'c4b5': 0.012658227848101266, 'c4d3': 0.012658227848101266, 'c4b3': 0.012658227848101266, 'c4e2': 0.012658227848101266, 'c4a2': 0.012658227848101266, 'c4f1': 0.012658227848101266, 'a3b4': 0.012658227848101266, 'a3b2': 0.012658227848101266, 'a3c1': 0.012658227848101266, 'h2h4': 0.012658227848101266, 'h2h3': 0.012658227848101266, 'h2h1': 0.17721518987341772, 'g1h3': 0.012658227848101266, 'g1f3': 0.012658227848101266, 'g1e2': 0.012658227848101266, 'e1f1': 0.5822784810126582, 'c5c6': 0.012658227848101266}</t>
+        </is>
+      </c>
+      <c r="C496" t="b">
+        <v>1</v>
+      </c>
+      <c r="D496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B1n3p1/6PR/5KN1 b kq - 1 25</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.010416666666666666, 'g8e7': 0.010416666666666666, 'g8f6': 0.010416666666666666, 'f8g7': 0.010416666666666666, 'f8e7': 0.010416666666666666, 'f8d6': 0.010416666666666666, 'f8c5': 0.010416666666666666, 'e8f7': 0.010416666666666666, 'e8e7': 0.010416666666666666, 'e8d7': 0.010416666666666666, 'd8c8': 0.010416666666666666, 'd8e7': 0.010416666666666666, 'd8d7': 0.010416666666666666, 'd8c7': 0.010416666666666666, 'd8f6': 0.010416666666666666, 'd8d6': 0.010416666666666666, 'd8b6': 0.010416666666666666, 'd8g5': 0.010416666666666666, 'd8d5': 0.010416666666666666, 'd8a5': 0.010416666666666666, 'd8h4': 0.010416666666666666, 'd8d4': 0.010416666666666666, 'd8d3': 0.010416666666666666, 'd8d2': 0.010416666666666666, 'd8d1': 0.010416666666666666, 'b8d7': 0.010416666666666666, 'b8c6': 0.010416666666666666, 'a6c8': 0.010416666666666666, 'a6b7': 0.010416666666666666, 'a6b5': 0.010416666666666666, 'a6c4': 0.0625, 'c3d5': 0.010416666666666666, 'c3b5': 0.010416666666666666, 'c3e4': 0.010416666666666666, 'c3a4': 0.20833333333333334, 'c3e2': 0.3333333333333333, 'c3a2': 0.010416666666666666, 'c3d1': 0.010416666666666666, 'c3b1': 0.010416666666666666, 'g3h2': 0.010416666666666666}</t>
+        </is>
+      </c>
+      <c r="C497" t="b">
+        <v>0</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/4n1PR/5KN1 w kq - 2 26</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.012195121951219513, 'c4a6': 0.012195121951219513, 'c4d5': 0.012195121951219513, 'c4b5': 0.012195121951219513, 'c4d3': 0.012195121951219513, 'c4b3': 0.012195121951219513, 'c4e2': 0.012195121951219513, 'c4a2': 0.012195121951219513, 'a3b4': 0.012195121951219513, 'a3b2': 0.012195121951219513, 'a3c1': 0.012195121951219513, 'h2h4': 0.012195121951219513, 'h2h3': 0.012195121951219513, 'h2h1': 0.012195121951219513, 'g1h3': 0.012195121951219513, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'f1e2': 0.012195121951219513, 'f1e1': 0.524390243902439, 'c5c6': 0.24390243902439024}</t>
+        </is>
+      </c>
+      <c r="C498" t="b">
+        <v>1</v>
+      </c>
+      <c r="D498" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/4n1PR/4K1N1 b kq - 3 26</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.010752688172043012, 'g8e7': 0.010752688172043012, 'g8f6': 0.010752688172043012, 'f8g7': 0.010752688172043012, 'f8e7': 0.010752688172043012, 'f8d6': 0.010752688172043012, 'f8c5': 0.010752688172043012, 'e8f7': 0.010752688172043012, 'e8e7': 0.010752688172043012, 'e8d7': 0.010752688172043012, 'd8c8': 0.010752688172043012, 'd8e7': 0.010752688172043012, 'd8d7': 0.010752688172043012, 'd8c7': 0.010752688172043012, 'd8f6': 0.010752688172043012, 'd8d6': 0.010752688172043012, 'd8b6': 0.010752688172043012, 'd8g5': 0.010752688172043012, 'd8d5': 0.010752688172043012, 'd8a5': 0.010752688172043012, 'd8h4': 0.010752688172043012, 'd8d4': 0.010752688172043012, 'd8d3': 0.010752688172043012, 'd8d2': 0.010752688172043012, 'd8d1': 0.010752688172043012, 'b8d7': 0.010752688172043012, 'b8c6': 0.010752688172043012, 'a6c8': 0.010752688172043012, 'a6b7': 0.010752688172043012, 'a6b5': 0.010752688172043012, 'a6c4': 0.1935483870967742, 'e2f4': 0.010752688172043012, 'e2d4': 0.010752688172043012, 'e2c3': 0.16129032258064516, 'e2g1': 0.26881720430107525, 'e2c1': 0.010752688172043012, 'g3h2': 0.010752688172043012}</t>
+        </is>
+      </c>
+      <c r="C499" t="b">
+        <v>0</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 0 27</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013333333333333334, 'c4a6': 0.013333333333333334, 'c4d5': 0.013333333333333334, 'c4b5': 0.013333333333333334, 'c4d3': 0.013333333333333334, 'c4b3': 0.013333333333333334, 'c4e2': 0.013333333333333334, 'c4a2': 0.013333333333333334, 'c4f1': 0.013333333333333334, 'a3b4': 0.013333333333333334, 'a3b2': 0.013333333333333334, 'a3c1': 0.013333333333333334, 'h2h4': 0.013333333333333334, 'h2h3': 0.013333333333333334, 'h2h1': 0.3466666666666667, 'e1f1': 0.44, 'c5c6': 0.013333333333333334}</t>
+        </is>
+      </c>
+      <c r="C500" t="b">
+        <v>1</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 1 27</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012048192771084338, 'g8e7': 0.012048192771084338, 'g8f6': 0.012048192771084338, 'f8g7': 0.012048192771084338, 'f8e7': 0.012048192771084338, 'f8d6': 0.012048192771084338, 'f8c5': 0.012048192771084338, 'e8f7': 0.012048192771084338, 'e8e7': 0.012048192771084338, 'e8d7': 0.012048192771084338, 'd8c8': 0.012048192771084338, 'd8e7': 0.012048192771084338, 'd8d7': 0.012048192771084338, 'd8c7': 0.012048192771084338, 'd8f6': 0.012048192771084338, 'd8d6': 0.012048192771084338, 'd8b6': 0.012048192771084338, 'd8g5': 0.012048192771084338, 'd8d5': 0.012048192771084338, 'd8a5': 0.012048192771084338, 'd8h4': 0.012048192771084338, 'd8d4': 0.012048192771084338, 'd8d3': 0.012048192771084338, 'd8d2': 0.012048192771084338, 'd8d1': 0.012048192771084338, 'b8d7': 0.012048192771084338, 'b8c6': 0.012048192771084338, 'a6c8': 0.012048192771084338, 'a6b7': 0.012048192771084338, 'a6b5': 0.25301204819277107, 'a6c4': 0.08433734939759036, 'g1h3': 0.26506024096385544, 'g1f3': 0.012048192771084338, 'g1e2': 0.012048192771084338, 'g3h2': 0.012048192771084338}</t>
+        </is>
+      </c>
+      <c r="C501" t="b">
+        <v>0</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 2 28</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C502" t="b">
+        <v>1</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 3 28</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C503" t="b">
+        <v>0</v>
+      </c>
+      <c r="D503" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 4 29</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C504" t="b">
+        <v>1</v>
+      </c>
+      <c r="D504" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 5 29</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C505" t="b">
+        <v>0</v>
+      </c>
+      <c r="D505" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 6 30</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C506" t="b">
+        <v>1</v>
+      </c>
+      <c r="D506" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 7 30</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C507" t="b">
+        <v>0</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 8 31</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C508" t="b">
+        <v>1</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 9 31</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C509" t="b">
+        <v>0</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 10 32</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C510" t="b">
+        <v>1</v>
+      </c>
+      <c r="D510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 11 32</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C511" t="b">
+        <v>0</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 12 33</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C512" t="b">
+        <v>1</v>
+      </c>
+      <c r="D512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 13 33</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C513" t="b">
+        <v>0</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 14 34</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C514" t="b">
+        <v>1</v>
+      </c>
+      <c r="D514" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 15 34</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C515" t="b">
+        <v>0</v>
+      </c>
+      <c r="D515" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 16 35</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C516" t="b">
+        <v>1</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 17 35</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C517" t="b">
+        <v>0</v>
+      </c>
+      <c r="D517" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 18 36</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C518" t="b">
+        <v>1</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 19 36</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C519" t="b">
+        <v>0</v>
+      </c>
+      <c r="D519" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 20 37</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C520" t="b">
+        <v>1</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 21 37</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C521" t="b">
+        <v>0</v>
+      </c>
+      <c r="D521" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 22 38</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C522" t="b">
+        <v>1</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 23 38</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C523" t="b">
+        <v>0</v>
+      </c>
+      <c r="D523" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 24 39</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C524" t="b">
+        <v>1</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 25 39</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C525" t="b">
+        <v>0</v>
+      </c>
+      <c r="D525" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 26 40</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C526" t="b">
+        <v>1</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 27 40</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C527" t="b">
+        <v>0</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 28 41</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C528" t="b">
+        <v>1</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 29 41</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C529" t="b">
+        <v>0</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 30 42</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C530" t="b">
+        <v>1</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 31 42</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C531" t="b">
+        <v>0</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 32 43</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C532" t="b">
+        <v>1</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 33 43</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C533" t="b">
+        <v>0</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 34 44</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C534" t="b">
+        <v>1</v>
+      </c>
+      <c r="D534" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 35 44</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C535" t="b">
+        <v>0</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 36 45</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C536" t="b">
+        <v>1</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 37 45</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C537" t="b">
+        <v>0</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 38 46</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C538" t="b">
+        <v>1</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 39 46</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C539" t="b">
+        <v>0</v>
+      </c>
+      <c r="D539" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 40 47</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C540" t="b">
+        <v>1</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 41 47</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C541" t="b">
+        <v>0</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 42 48</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C542" t="b">
+        <v>1</v>
+      </c>
+      <c r="D542" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 43 48</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C543" t="b">
+        <v>0</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 44 49</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C544" t="b">
+        <v>1</v>
+      </c>
+      <c r="D544" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 45 49</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C545" t="b">
+        <v>0</v>
+      </c>
+      <c r="D545" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 46 50</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C546" t="b">
+        <v>1</v>
+      </c>
+      <c r="D546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 47 50</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C547" t="b">
+        <v>0</v>
+      </c>
+      <c r="D547" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 48 51</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C548" t="b">
+        <v>1</v>
+      </c>
+      <c r="D548" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 49 51</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C549" t="b">
+        <v>0</v>
+      </c>
+      <c r="D549" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 50 52</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C550" t="b">
+        <v>1</v>
+      </c>
+      <c r="D550" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 51 52</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C551" t="b">
+        <v>0</v>
+      </c>
+      <c r="D551" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 52 53</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C552" t="b">
+        <v>1</v>
+      </c>
+      <c r="D552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 53 53</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C553" t="b">
+        <v>0</v>
+      </c>
+      <c r="D553" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 54 54</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C554" t="b">
+        <v>1</v>
+      </c>
+      <c r="D554" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 55 54</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C555" t="b">
+        <v>0</v>
+      </c>
+      <c r="D555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 56 55</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C556" t="b">
+        <v>1</v>
+      </c>
+      <c r="D556" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 57 55</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C557" t="b">
+        <v>0</v>
+      </c>
+      <c r="D557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 58 56</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C558" t="b">
+        <v>1</v>
+      </c>
+      <c r="D558" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 59 56</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C559" t="b">
+        <v>0</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 60 57</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C560" t="b">
+        <v>1</v>
+      </c>
+      <c r="D560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 61 57</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C561" t="b">
+        <v>0</v>
+      </c>
+      <c r="D561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 62 58</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C562" t="b">
+        <v>1</v>
+      </c>
+      <c r="D562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 63 58</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C563" t="b">
+        <v>0</v>
+      </c>
+      <c r="D563" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 64 59</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C564" t="b">
+        <v>1</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 65 59</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C565" t="b">
+        <v>0</v>
+      </c>
+      <c r="D565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 66 60</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C566" t="b">
+        <v>1</v>
+      </c>
+      <c r="D566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 67 60</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C567" t="b">
+        <v>0</v>
+      </c>
+      <c r="D567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 68 61</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C568" t="b">
+        <v>1</v>
+      </c>
+      <c r="D568" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 69 61</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C569" t="b">
+        <v>0</v>
+      </c>
+      <c r="D569" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 70 62</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C570" t="b">
+        <v>1</v>
+      </c>
+      <c r="D570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 71 62</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C571" t="b">
+        <v>0</v>
+      </c>
+      <c r="D571" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 72 63</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C572" t="b">
+        <v>1</v>
+      </c>
+      <c r="D572" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 73 63</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C573" t="b">
+        <v>0</v>
+      </c>
+      <c r="D573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 74 64</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C574" t="b">
+        <v>1</v>
+      </c>
+      <c r="D574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 75 64</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C575" t="b">
+        <v>0</v>
+      </c>
+      <c r="D575" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 76 65</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C576" t="b">
+        <v>1</v>
+      </c>
+      <c r="D576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 77 65</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C577" t="b">
+        <v>0</v>
+      </c>
+      <c r="D577" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 78 66</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C578" t="b">
+        <v>1</v>
+      </c>
+      <c r="D578" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 79 66</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C579" t="b">
+        <v>0</v>
+      </c>
+      <c r="D579" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 80 67</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C580" t="b">
+        <v>1</v>
+      </c>
+      <c r="D580" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 81 67</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C581" t="b">
+        <v>0</v>
+      </c>
+      <c r="D581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 82 68</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C582" t="b">
+        <v>1</v>
+      </c>
+      <c r="D582" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 83 68</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C583" t="b">
+        <v>0</v>
+      </c>
+      <c r="D583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 84 69</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C584" t="b">
+        <v>1</v>
+      </c>
+      <c r="D584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 85 69</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C585" t="b">
+        <v>0</v>
+      </c>
+      <c r="D585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 86 70</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C586" t="b">
+        <v>1</v>
+      </c>
+      <c r="D586" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 87 70</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C587" t="b">
+        <v>0</v>
+      </c>
+      <c r="D587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 88 71</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C588" t="b">
+        <v>1</v>
+      </c>
+      <c r="D588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 89 71</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C589" t="b">
+        <v>0</v>
+      </c>
+      <c r="D589" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 90 72</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C590" t="b">
+        <v>1</v>
+      </c>
+      <c r="D590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 91 72</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C591" t="b">
+        <v>0</v>
+      </c>
+      <c r="D591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 92 73</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C592" t="b">
+        <v>1</v>
+      </c>
+      <c r="D592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 93 73</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C593" t="b">
+        <v>0</v>
+      </c>
+      <c r="D593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 94 74</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C594" t="b">
+        <v>1</v>
+      </c>
+      <c r="D594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 95 74</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C595" t="b">
+        <v>0</v>
+      </c>
+      <c r="D595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 96 75</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C596" t="b">
+        <v>1</v>
+      </c>
+      <c r="D596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 97 75</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C597" t="b">
+        <v>0</v>
+      </c>
+      <c r="D597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 98 76</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C598" t="b">
+        <v>1</v>
+      </c>
+      <c r="D598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 99 76</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C599" t="b">
+        <v>0</v>
+      </c>
+      <c r="D599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 100 77</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C600" t="b">
+        <v>1</v>
+      </c>
+      <c r="D600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 101 77</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C601" t="b">
+        <v>0</v>
+      </c>
+      <c r="D601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 102 78</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C602" t="b">
+        <v>1</v>
+      </c>
+      <c r="D602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 103 78</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C603" t="b">
+        <v>0</v>
+      </c>
+      <c r="D603" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 104 79</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C604" t="b">
+        <v>1</v>
+      </c>
+      <c r="D604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 105 79</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C605" t="b">
+        <v>0</v>
+      </c>
+      <c r="D605" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 106 80</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C606" t="b">
+        <v>1</v>
+      </c>
+      <c r="D606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 107 80</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C607" t="b">
+        <v>0</v>
+      </c>
+      <c r="D607" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 108 81</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C608" t="b">
+        <v>1</v>
+      </c>
+      <c r="D608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 109 81</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C609" t="b">
+        <v>0</v>
+      </c>
+      <c r="D609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 110 82</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C610" t="b">
+        <v>1</v>
+      </c>
+      <c r="D610" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 111 82</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C611" t="b">
+        <v>0</v>
+      </c>
+      <c r="D611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 112 83</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C612" t="b">
+        <v>1</v>
+      </c>
+      <c r="D612" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 113 83</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C613" t="b">
+        <v>0</v>
+      </c>
+      <c r="D613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 114 84</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C614" t="b">
+        <v>1</v>
+      </c>
+      <c r="D614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 115 84</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C615" t="b">
+        <v>0</v>
+      </c>
+      <c r="D615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 116 85</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C616" t="b">
+        <v>1</v>
+      </c>
+      <c r="D616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 117 85</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C617" t="b">
+        <v>0</v>
+      </c>
+      <c r="D617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 118 86</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C618" t="b">
+        <v>1</v>
+      </c>
+      <c r="D618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 119 86</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C619" t="b">
+        <v>0</v>
+      </c>
+      <c r="D619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 120 87</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C620" t="b">
+        <v>1</v>
+      </c>
+      <c r="D620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 121 87</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C621" t="b">
+        <v>0</v>
+      </c>
+      <c r="D621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 122 88</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C622" t="b">
+        <v>1</v>
+      </c>
+      <c r="D622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 123 88</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C623" t="b">
+        <v>0</v>
+      </c>
+      <c r="D623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 124 89</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C624" t="b">
+        <v>1</v>
+      </c>
+      <c r="D624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 125 89</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C625" t="b">
+        <v>0</v>
+      </c>
+      <c r="D625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 126 90</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C626" t="b">
+        <v>1</v>
+      </c>
+      <c r="D626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 127 90</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C627" t="b">
+        <v>0</v>
+      </c>
+      <c r="D627" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 128 91</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C628" t="b">
+        <v>1</v>
+      </c>
+      <c r="D628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 129 91</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C629" t="b">
+        <v>0</v>
+      </c>
+      <c r="D629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 130 92</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C630" t="b">
+        <v>1</v>
+      </c>
+      <c r="D630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 131 92</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C631" t="b">
+        <v>0</v>
+      </c>
+      <c r="D631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 132 93</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C632" t="b">
+        <v>1</v>
+      </c>
+      <c r="D632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 133 93</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C633" t="b">
+        <v>0</v>
+      </c>
+      <c r="D633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 134 94</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C634" t="b">
+        <v>1</v>
+      </c>
+      <c r="D634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 135 94</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C635" t="b">
+        <v>0</v>
+      </c>
+      <c r="D635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 136 95</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C636" t="b">
+        <v>1</v>
+      </c>
+      <c r="D636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 137 95</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C637" t="b">
+        <v>0</v>
+      </c>
+      <c r="D637" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 138 96</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C638" t="b">
+        <v>1</v>
+      </c>
+      <c r="D638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 139 96</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C639" t="b">
+        <v>0</v>
+      </c>
+      <c r="D639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 140 97</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C640" t="b">
+        <v>1</v>
+      </c>
+      <c r="D640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 141 97</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C641" t="b">
+        <v>0</v>
+      </c>
+      <c r="D641" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 142 98</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C642" t="b">
+        <v>1</v>
+      </c>
+      <c r="D642" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 143 98</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C643" t="b">
+        <v>0</v>
+      </c>
+      <c r="D643" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 144 99</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C644" t="b">
+        <v>1</v>
+      </c>
+      <c r="D644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 145 99</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C645" t="b">
+        <v>0</v>
+      </c>
+      <c r="D645" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/5K2 w kq - 146 100</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>{'c4a6': 0.013888888888888888, 'c4b5': 0.013888888888888888, 'c4d3': 0.013888888888888888, 'c4e2': 0.013888888888888888, 'a3b4': 0.013888888888888888, 'a3b2': 0.013888888888888888, 'a3c1': 0.013888888888888888, 'h2h3': 0.013888888888888888, 'h2h1': 0.013888888888888888, 'f1e2': 0.013888888888888888, 'f1e1': 0.4305555555555556, 'g2h3': 0.4027777777777778, 'c5c6': 0.013888888888888888}</t>
+        </is>
+      </c>
+      <c r="C646" t="b">
+        <v>1</v>
+      </c>
+      <c r="D646" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5pn/6PR/4K3 b kq - 147 100</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012345679012345678, 'g8e7': 0.012345679012345678, 'g8f6': 0.012345679012345678, 'f8g7': 0.012345679012345678, 'f8e7': 0.012345679012345678, 'f8d6': 0.012345679012345678, 'f8c5': 0.012345679012345678, 'e8f7': 0.012345679012345678, 'e8e7': 0.012345679012345678, 'e8d7': 0.012345679012345678, 'd8c8': 0.012345679012345678, 'd8e7': 0.012345679012345678, 'd8d7': 0.012345679012345678, 'd8c7': 0.012345679012345678, 'd8f6': 0.012345679012345678, 'd8d6': 0.012345679012345678, 'd8b6': 0.012345679012345678, 'd8g5': 0.012345679012345678, 'd8d5': 0.012345679012345678, 'd8a5': 0.012345679012345678, 'd8h4': 0.012345679012345678, 'd8d4': 0.012345679012345678, 'd8d3': 0.012345679012345678, 'd8d2': 0.012345679012345678, 'd8d1': 0.012345679012345678, 'b8d7': 0.012345679012345678, 'b8c6': 0.012345679012345678, 'a6c8': 0.012345679012345678, 'a6b7': 0.012345679012345678, 'a6b5': 0.012345679012345678, 'a6c4': 0.012345679012345678, 'h3g5': 0.012345679012345678, 'h3f4': 0.012345679012345678, 'h3f2': 0.2716049382716049, 'h3g1': 0.2962962962962963, 'g3h2': 0.012345679012345678}</t>
+        </is>
+      </c>
+      <c r="C647" t="b">
+        <v>0</v>
+      </c>
+      <c r="D647" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/4K1n1 w kq - 148 101</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>{'c4e6': 0.013513513513513514, 'c4a6': 0.013513513513513514, 'c4d5': 0.013513513513513514, 'c4b5': 0.013513513513513514, 'c4d3': 0.013513513513513514, 'c4b3': 0.013513513513513514, 'c4e2': 0.013513513513513514, 'c4a2': 0.013513513513513514, 'c4f1': 0.013513513513513514, 'a3b4': 0.013513513513513514, 'a3b2': 0.013513513513513514, 'a3c1': 0.013513513513513514, 'h2h4': 0.013513513513513514, 'h2h3': 0.013513513513513514, 'h2h1': 0.35135135135135137, 'e1f1': 0.43243243243243246, 'c5c6': 0.013513513513513514}</t>
+        </is>
+      </c>
+      <c r="C648" t="b">
+        <v>1</v>
+      </c>
+      <c r="D648" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>rn1qkbnr/p7/b3p2p/2P1Pp1P/2B2P2/B5p1/6PR/5Kn1 b kq - 149 101</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>{'h8h7': 0.012195121951219513, 'g8e7': 0.012195121951219513, 'g8f6': 0.012195121951219513, 'f8g7': 0.012195121951219513, 'f8e7': 0.012195121951219513, 'f8d6': 0.012195121951219513, 'f8c5': 0.012195121951219513, 'e8f7': 0.012195121951219513, 'e8e7': 0.012195121951219513, 'e8d7': 0.012195121951219513, 'd8c8': 0.012195121951219513, 'd8e7': 0.012195121951219513, 'd8d7': 0.012195121951219513, 'd8c7': 0.012195121951219513, 'd8f6': 0.012195121951219513, 'd8d6': 0.012195121951219513, 'd8b6': 0.012195121951219513, 'd8g5': 0.012195121951219513, 'd8d5': 0.012195121951219513, 'd8a5': 0.012195121951219513, 'd8h4': 0.012195121951219513, 'd8d4': 0.012195121951219513, 'd8d3': 0.012195121951219513, 'd8d2': 0.012195121951219513, 'd8d1': 0.012195121951219513, 'b8d7': 0.012195121951219513, 'b8c6': 0.012195121951219513, 'a6c8': 0.012195121951219513, 'a6b7': 0.012195121951219513, 'a6b5': 0.25609756097560976, 'a6c4': 0.07317073170731707, 'g1h3': 0.2682926829268293, 'g1f3': 0.012195121951219513, 'g1e2': 0.012195121951219513, 'g3h2': 0.012195121951219513}</t>
+        </is>
+      </c>
+      <c r="C649" t="b">
+        <v>0</v>
+      </c>
+      <c r="D649" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/pppppppp/8/8/8/8/PPPPPPPP/RNBQKBNR w KQkq - 0 1</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>{'g1h3': 0.05, 'g1f3': 0.05, 'b1c3': 0.05, 'b1a3': 0.05, 'h2h3': 0.05, 'g2g3': 0.05, 'f2f3': 0.05, 'e2e3': 0.05, 'd2d3': 0.05, 'c2c3': 0.05, 'b2b3': 0.05, 'a2a3': 0.05, 'h2h4': 0.05, 'g2g4': 0.05, 'f2f4': 0.05, 'e2e4': 0.05, 'd2d4': 0.05, 'c2c4': 0.05, 'b2b4': 0.05, 'a2a4': 0.05}</t>
+        </is>
+      </c>
+      <c r="C650" t="b">
+        <v>1</v>
+      </c>
+      <c r="D650" t="n">
+        <v>-0.3445338735694578</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>rnbqkbnr/pppppppp/8/8/8/7N/PPPPPPPP/RNBQKB1R b KQkq - 1 1</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>{'g8h6': 0.047619047619047616, 'g8f6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h7h6': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'b7b6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'h7h5': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.047619047619047616, 'b7b5': 0.047619047619047616, 'a7a5': 0.047619047619047616}</t>
+        </is>
+      </c>
+      <c r="C651" t="b">
+        <v>0</v>
+      </c>
+      <c r="D651" t="n">
+        <v>-0.2841924899161006</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>rnbqkb1r/pppppppp/7n/8/8/7N/PPPPPPPP/RNBQKB1R w KQkq - 2 2</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>{'h3g5': 0.047619047619047616, 'h3f4': 0.047619047619047616, 'h3g1': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.047619047619047616, 'a2a4': 0.047619047619047616}</t>
+        </is>
+      </c>
+      <c r="C652" t="b">
+        <v>1</v>
+      </c>
+      <c r="D652" t="n">
+        <v>-0.3483633691593275</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>rnbqkb1r/pppppppp/7n/6N1/8/8/PPPPPPPP/RNBQKB1R b KQkq - 3 2</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'b7b6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.047619047619047616, 'b7b5': 0.09523809523809523, 'a7a5': 0.047619047619047616}</t>
+        </is>
+      </c>
+      <c r="C653" t="b">
+        <v>0</v>
+      </c>
+      <c r="D653" t="n">
+        <v>-0.2658192672923189</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>rnbqkb1r/p1pppppp/7n/1p4N1/8/8/PPPPPPPP/RNBQKB1R w KQkq - 0 3</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>{'g5h7': 0.045454545454545456, 'g5f7': 0.045454545454545456, 'g5e6': 0.045454545454545456, 'g5e4': 0.045454545454545456, 'g5h3': 0.045454545454545456, 'g5f3': 0.045454545454545456, 'h1g1': 0.045454545454545456, 'b1c3': 0.045454545454545456, 'b1a3': 0.045454545454545456, 'h2h3': 0.045454545454545456, 'g2g3': 0.045454545454545456, 'f2f3': 0.045454545454545456, 'e2e3': 0.045454545454545456, 'd2d3': 0.045454545454545456, 'c2c3': 0.045454545454545456, 'b2b3': 0.045454545454545456, 'a2a3': 0.045454545454545456, 'h2h4': 0.045454545454545456, 'g2g4': 0.045454545454545456, 'f2f4': 0.045454545454545456, 'e2e4': 0.045454545454545456, 'd2d4': 0.0, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C654" t="b">
+        <v>1</v>
+      </c>
+      <c r="D654" t="n">
+        <v>-0.3741289546242599</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>rnbqkb1r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQkq - 0 3</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C655" t="b">
+        <v>0</v>
+      </c>
+      <c r="D655" t="n">
+        <v>-0.2841356794318455</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>rnbqkbr1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 1 4</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C656" t="b">
+        <v>1</v>
+      </c>
+      <c r="D656" t="n">
+        <v>-0.3498961113709459</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 0 4</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C657" t="b">
+        <v>0</v>
+      </c>
+      <c r="D657" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 1 5</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C658" t="b">
+        <v>1</v>
+      </c>
+      <c r="D658" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 2 5</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C659" t="b">
+        <v>0</v>
+      </c>
+      <c r="D659" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 3 6</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C660" t="b">
+        <v>1</v>
+      </c>
+      <c r="D660" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 4 6</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C661" t="b">
+        <v>0</v>
+      </c>
+      <c r="D661" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 5 7</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C662" t="b">
+        <v>1</v>
+      </c>
+      <c r="D662" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 6 7</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C663" t="b">
+        <v>0</v>
+      </c>
+      <c r="D663" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 7 8</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C664" t="b">
+        <v>1</v>
+      </c>
+      <c r="D664" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 8 8</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C665" t="b">
+        <v>0</v>
+      </c>
+      <c r="D665" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 9 9</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C666" t="b">
+        <v>1</v>
+      </c>
+      <c r="D666" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 10 9</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C667" t="b">
+        <v>0</v>
+      </c>
+      <c r="D667" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 11 10</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C668" t="b">
+        <v>1</v>
+      </c>
+      <c r="D668" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 12 10</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C669" t="b">
+        <v>0</v>
+      </c>
+      <c r="D669" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 13 11</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C670" t="b">
+        <v>1</v>
+      </c>
+      <c r="D670" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 14 11</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C671" t="b">
+        <v>0</v>
+      </c>
+      <c r="D671" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 15 12</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C672" t="b">
+        <v>1</v>
+      </c>
+      <c r="D672" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 16 12</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C673" t="b">
+        <v>0</v>
+      </c>
+      <c r="D673" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 17 13</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C674" t="b">
+        <v>1</v>
+      </c>
+      <c r="D674" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 18 13</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C675" t="b">
+        <v>0</v>
+      </c>
+      <c r="D675" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 19 14</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C676" t="b">
+        <v>1</v>
+      </c>
+      <c r="D676" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 20 14</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C677" t="b">
+        <v>0</v>
+      </c>
+      <c r="D677" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 21 15</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C678" t="b">
+        <v>1</v>
+      </c>
+      <c r="D678" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 22 15</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C679" t="b">
+        <v>0</v>
+      </c>
+      <c r="D679" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 23 16</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C680" t="b">
+        <v>1</v>
+      </c>
+      <c r="D680" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 24 16</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C681" t="b">
+        <v>0</v>
+      </c>
+      <c r="D681" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 25 17</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C682" t="b">
+        <v>1</v>
+      </c>
+      <c r="D682" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 26 17</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C683" t="b">
+        <v>0</v>
+      </c>
+      <c r="D683" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 27 18</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C684" t="b">
+        <v>1</v>
+      </c>
+      <c r="D684" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 28 18</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C685" t="b">
+        <v>0</v>
+      </c>
+      <c r="D685" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 29 19</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C686" t="b">
+        <v>1</v>
+      </c>
+      <c r="D686" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 30 19</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C687" t="b">
+        <v>0</v>
+      </c>
+      <c r="D687" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 31 20</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C688" t="b">
+        <v>1</v>
+      </c>
+      <c r="D688" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 32 20</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C689" t="b">
+        <v>0</v>
+      </c>
+      <c r="D689" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 33 21</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C690" t="b">
+        <v>1</v>
+      </c>
+      <c r="D690" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 34 21</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C691" t="b">
+        <v>0</v>
+      </c>
+      <c r="D691" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 35 22</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C692" t="b">
+        <v>1</v>
+      </c>
+      <c r="D692" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 36 22</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C693" t="b">
+        <v>0</v>
+      </c>
+      <c r="D693" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 37 23</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C694" t="b">
+        <v>1</v>
+      </c>
+      <c r="D694" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 38 23</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C695" t="b">
+        <v>0</v>
+      </c>
+      <c r="D695" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 39 24</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C696" t="b">
+        <v>1</v>
+      </c>
+      <c r="D696" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 40 24</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C697" t="b">
+        <v>0</v>
+      </c>
+      <c r="D697" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 41 25</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C698" t="b">
+        <v>1</v>
+      </c>
+      <c r="D698" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 42 25</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C699" t="b">
+        <v>0</v>
+      </c>
+      <c r="D699" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 43 26</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C700" t="b">
+        <v>1</v>
+      </c>
+      <c r="D700" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 44 26</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C701" t="b">
+        <v>0</v>
+      </c>
+      <c r="D701" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 45 27</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C702" t="b">
+        <v>1</v>
+      </c>
+      <c r="D702" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 46 27</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C703" t="b">
+        <v>0</v>
+      </c>
+      <c r="D703" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 47 28</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C704" t="b">
+        <v>1</v>
+      </c>
+      <c r="D704" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 48 28</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C705" t="b">
+        <v>0</v>
+      </c>
+      <c r="D705" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 49 29</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C706" t="b">
+        <v>1</v>
+      </c>
+      <c r="D706" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 50 29</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C707" t="b">
+        <v>0</v>
+      </c>
+      <c r="D707" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 51 30</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C708" t="b">
+        <v>1</v>
+      </c>
+      <c r="D708" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 52 30</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C709" t="b">
+        <v>0</v>
+      </c>
+      <c r="D709" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 53 31</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C710" t="b">
+        <v>1</v>
+      </c>
+      <c r="D710" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 54 31</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C711" t="b">
+        <v>0</v>
+      </c>
+      <c r="D711" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 55 32</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C712" t="b">
+        <v>1</v>
+      </c>
+      <c r="D712" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 56 32</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C713" t="b">
+        <v>0</v>
+      </c>
+      <c r="D713" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 57 33</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C714" t="b">
+        <v>1</v>
+      </c>
+      <c r="D714" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 58 33</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C715" t="b">
+        <v>0</v>
+      </c>
+      <c r="D715" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 59 34</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C716" t="b">
+        <v>1</v>
+      </c>
+      <c r="D716" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 60 34</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C717" t="b">
+        <v>0</v>
+      </c>
+      <c r="D717" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 61 35</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C718" t="b">
+        <v>1</v>
+      </c>
+      <c r="D718" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 62 35</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C719" t="b">
+        <v>0</v>
+      </c>
+      <c r="D719" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 63 36</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C720" t="b">
+        <v>1</v>
+      </c>
+      <c r="D720" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 64 36</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C721" t="b">
+        <v>0</v>
+      </c>
+      <c r="D721" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 65 37</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C722" t="b">
+        <v>1</v>
+      </c>
+      <c r="D722" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 66 37</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C723" t="b">
+        <v>0</v>
+      </c>
+      <c r="D723" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 67 38</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C724" t="b">
+        <v>1</v>
+      </c>
+      <c r="D724" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 68 38</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C725" t="b">
+        <v>0</v>
+      </c>
+      <c r="D725" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 69 39</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C726" t="b">
+        <v>1</v>
+      </c>
+      <c r="D726" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 70 39</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C727" t="b">
+        <v>0</v>
+      </c>
+      <c r="D727" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 71 40</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C728" t="b">
+        <v>1</v>
+      </c>
+      <c r="D728" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 72 40</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C729" t="b">
+        <v>0</v>
+      </c>
+      <c r="D729" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 73 41</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C730" t="b">
+        <v>1</v>
+      </c>
+      <c r="D730" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 74 41</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C731" t="b">
+        <v>0</v>
+      </c>
+      <c r="D731" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 75 42</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C732" t="b">
+        <v>1</v>
+      </c>
+      <c r="D732" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 76 42</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C733" t="b">
+        <v>0</v>
+      </c>
+      <c r="D733" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 77 43</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C734" t="b">
+        <v>1</v>
+      </c>
+      <c r="D734" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 78 43</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C735" t="b">
+        <v>0</v>
+      </c>
+      <c r="D735" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 79 44</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C736" t="b">
+        <v>1</v>
+      </c>
+      <c r="D736" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 80 44</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C737" t="b">
+        <v>0</v>
+      </c>
+      <c r="D737" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 81 45</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C738" t="b">
+        <v>1</v>
+      </c>
+      <c r="D738" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 82 45</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C739" t="b">
+        <v>0</v>
+      </c>
+      <c r="D739" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 83 46</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C740" t="b">
+        <v>1</v>
+      </c>
+      <c r="D740" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 84 46</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C741" t="b">
+        <v>0</v>
+      </c>
+      <c r="D741" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 85 47</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C742" t="b">
+        <v>1</v>
+      </c>
+      <c r="D742" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 86 47</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C743" t="b">
+        <v>0</v>
+      </c>
+      <c r="D743" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 87 48</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C744" t="b">
+        <v>1</v>
+      </c>
+      <c r="D744" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 88 48</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C745" t="b">
+        <v>0</v>
+      </c>
+      <c r="D745" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 89 49</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C746" t="b">
+        <v>1</v>
+      </c>
+      <c r="D746" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 90 49</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C747" t="b">
+        <v>0</v>
+      </c>
+      <c r="D747" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 91 50</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C748" t="b">
+        <v>1</v>
+      </c>
+      <c r="D748" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 92 50</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C749" t="b">
+        <v>0</v>
+      </c>
+      <c r="D749" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 93 51</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C750" t="b">
+        <v>1</v>
+      </c>
+      <c r="D750" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 94 51</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C751" t="b">
+        <v>0</v>
+      </c>
+      <c r="D751" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 95 52</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C752" t="b">
+        <v>1</v>
+      </c>
+      <c r="D752" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 96 52</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C753" t="b">
+        <v>0</v>
+      </c>
+      <c r="D753" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 97 53</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C754" t="b">
+        <v>1</v>
+      </c>
+      <c r="D754" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 98 53</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C755" t="b">
+        <v>0</v>
+      </c>
+      <c r="D755" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 99 54</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C756" t="b">
+        <v>1</v>
+      </c>
+      <c r="D756" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 100 54</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C757" t="b">
+        <v>0</v>
+      </c>
+      <c r="D757" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 101 55</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C758" t="b">
+        <v>1</v>
+      </c>
+      <c r="D758" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 102 55</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C759" t="b">
+        <v>0</v>
+      </c>
+      <c r="D759" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 103 56</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C760" t="b">
+        <v>1</v>
+      </c>
+      <c r="D760" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 104 56</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C761" t="b">
+        <v>0</v>
+      </c>
+      <c r="D761" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 105 57</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C762" t="b">
+        <v>1</v>
+      </c>
+      <c r="D762" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 106 57</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C763" t="b">
+        <v>0</v>
+      </c>
+      <c r="D763" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 107 58</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C764" t="b">
+        <v>1</v>
+      </c>
+      <c r="D764" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 108 58</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C765" t="b">
+        <v>0</v>
+      </c>
+      <c r="D765" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 109 59</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C766" t="b">
+        <v>1</v>
+      </c>
+      <c r="D766" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 110 59</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C767" t="b">
+        <v>0</v>
+      </c>
+      <c r="D767" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 111 60</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C768" t="b">
+        <v>1</v>
+      </c>
+      <c r="D768" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 112 60</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C769" t="b">
+        <v>0</v>
+      </c>
+      <c r="D769" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 113 61</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C770" t="b">
+        <v>1</v>
+      </c>
+      <c r="D770" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 114 61</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C771" t="b">
+        <v>0</v>
+      </c>
+      <c r="D771" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 115 62</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C772" t="b">
+        <v>1</v>
+      </c>
+      <c r="D772" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 116 62</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C773" t="b">
+        <v>0</v>
+      </c>
+      <c r="D773" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 117 63</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C774" t="b">
+        <v>1</v>
+      </c>
+      <c r="D774" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 118 63</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C775" t="b">
+        <v>0</v>
+      </c>
+      <c r="D775" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 119 64</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C776" t="b">
+        <v>1</v>
+      </c>
+      <c r="D776" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 120 64</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C777" t="b">
+        <v>0</v>
+      </c>
+      <c r="D777" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 121 65</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C778" t="b">
+        <v>1</v>
+      </c>
+      <c r="D778" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 122 65</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C779" t="b">
+        <v>0</v>
+      </c>
+      <c r="D779" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 123 66</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C780" t="b">
+        <v>1</v>
+      </c>
+      <c r="D780" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 124 66</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C781" t="b">
+        <v>0</v>
+      </c>
+      <c r="D781" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 125 67</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C782" t="b">
+        <v>1</v>
+      </c>
+      <c r="D782" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 126 67</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C783" t="b">
+        <v>0</v>
+      </c>
+      <c r="D783" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 127 68</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C784" t="b">
+        <v>1</v>
+      </c>
+      <c r="D784" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 128 68</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C785" t="b">
+        <v>0</v>
+      </c>
+      <c r="D785" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 129 69</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C786" t="b">
+        <v>1</v>
+      </c>
+      <c r="D786" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 130 69</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C787" t="b">
+        <v>0</v>
+      </c>
+      <c r="D787" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 131 70</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C788" t="b">
+        <v>1</v>
+      </c>
+      <c r="D788" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 132 70</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C789" t="b">
+        <v>0</v>
+      </c>
+      <c r="D789" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 133 71</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C790" t="b">
+        <v>1</v>
+      </c>
+      <c r="D790" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 134 71</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C791" t="b">
+        <v>0</v>
+      </c>
+      <c r="D791" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 135 72</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C792" t="b">
+        <v>1</v>
+      </c>
+      <c r="D792" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 136 72</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C793" t="b">
+        <v>0</v>
+      </c>
+      <c r="D793" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 137 73</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C794" t="b">
+        <v>1</v>
+      </c>
+      <c r="D794" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 138 73</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C795" t="b">
+        <v>0</v>
+      </c>
+      <c r="D795" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 139 74</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C796" t="b">
+        <v>1</v>
+      </c>
+      <c r="D796" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 140 74</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C797" t="b">
+        <v>0</v>
+      </c>
+      <c r="D797" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 141 75</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C798" t="b">
+        <v>1</v>
+      </c>
+      <c r="D798" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 142 75</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C799" t="b">
+        <v>0</v>
+      </c>
+      <c r="D799" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 143 76</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C800" t="b">
+        <v>1</v>
+      </c>
+      <c r="D800" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 144 76</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C801" t="b">
+        <v>0</v>
+      </c>
+      <c r="D801" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 145 77</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C802" t="b">
+        <v>1</v>
+      </c>
+      <c r="D802" t="n">
+        <v>-0.3684942062149836</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>rnbqk2r/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 146 77</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>{'h8g8': 0.047619047619047616, 'h8f8': 0.047619047619047616, 'h8h7': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6g8': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.0, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C803" t="b">
+        <v>0</v>
+      </c>
+      <c r="D803" t="n">
+        <v>-0.2867803539318654</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>rnbqk1r1/p1pppppN/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 147 78</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>{'h7f8': 0.047619047619047616, 'h7f6': 0.047619047619047616, 'h7g5': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.047619047619047616, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C804" t="b">
+        <v>1</v>
+      </c>
+      <c r="D804" t="n">
+        <v>-0.3561806716669318</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>rnbqkNr1/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R b KQq - 148 78</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>{'g8h8': 0.047619047619047616, 'g8f8': 0.047619047619047616, 'e8f8': 0.047619047619047616, 'c8b7': 0.047619047619047616, 'c8a6': 0.047619047619047616, 'b8c6': 0.047619047619047616, 'b8a6': 0.047619047619047616, 'h6f5': 0.047619047619047616, 'h6g4': 0.047619047619047616, 'g7g6': 0.047619047619047616, 'f7f6': 0.047619047619047616, 'e7e6': 0.047619047619047616, 'd7d6': 0.047619047619047616, 'c7c6': 0.047619047619047616, 'a7a6': 0.047619047619047616, 'b5b4': 0.047619047619047616, 'g7g5': 0.047619047619047616, 'f7f5': 0.047619047619047616, 'e7e5': 0.047619047619047616, 'd7d5': 0.047619047619047616, 'c7c5': 0.0, 'a7a5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C805" t="b">
+        <v>0</v>
+      </c>
+      <c r="D805" t="n">
+        <v>-0.2934692522313712</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>rnbqkN1r/p1ppppp1/7n/1p6/8/8/PPPPPPPP/RNBQKB1R w KQq - 149 79</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>{'f8h7': 0.047619047619047616, 'f8d7': 0.047619047619047616, 'f8g6': 0.047619047619047616, 'f8e6': 0.047619047619047616, 'h1g1': 0.047619047619047616, 'b1c3': 0.047619047619047616, 'b1a3': 0.047619047619047616, 'h2h3': 0.047619047619047616, 'g2g3': 0.047619047619047616, 'f2f3': 0.047619047619047616, 'e2e3': 0.047619047619047616, 'd2d3': 0.047619047619047616, 'c2c3': 0.047619047619047616, 'b2b3': 0.047619047619047616, 'a2a3': 0.047619047619047616, 'h2h4': 0.047619047619047616, 'g2g4': 0.047619047619047616, 'f2f4': 0.047619047619047616, 'e2e4': 0.047619047619047616, 'd2d4': 0.047619047619047616, 'c2c4': 0.0, 'b2b4': 0.0, 'a2a4': 0.0}</t>
+        </is>
+      </c>
+      <c r="C806" t="b">
+        <v>1</v>
+      </c>
+      <c r="D806" t="n">
+        <v>-0.3684942062149836</v>
       </c>
     </row>
   </sheetData>
